--- a/static/output/Excel/LRamounts-sol-2.xlsx
+++ b/static/output/Excel/LRamounts-sol-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/My Mac (3160L-201016-M)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B2A14-4F8E-8246-8FF1-3045C32C25AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A962A-9A1A-354F-B0C3-6552DB3EC138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="500" windowWidth="24280" windowHeight="20980" firstSheet="2" activeTab="6" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
+    <workbookView xWindow="10280" yWindow="760" windowWidth="24280" windowHeight="20980" firstSheet="2" activeTab="5" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="WPI" sheetId="3" r:id="rId1"/>
@@ -6735,9 +6735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6775,7 +6775,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6881,7 +6881,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7023,7 +7023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17989,7 +17989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BCF64-09FB-A244-9983-B776A3EDA933}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -19747,7 +19747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FBCDE-374F-8347-AD8D-76FB3C6D7305}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>

--- a/static/output/Excel/LRamounts-sol-2.xlsx
+++ b/static/output/Excel/LRamounts-sol-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835A962A-9A1A-354F-B0C3-6552DB3EC138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD25CB4-CF4E-7147-96AA-EC016799BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="760" windowWidth="24280" windowHeight="20980" firstSheet="2" activeTab="5" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="WPI" sheetId="3" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
   <si>
     <t>Cumulative amounts</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>forecast</t>
-  </si>
-  <si>
-    <t>Outsanding</t>
   </si>
   <si>
     <t>liabilities</t>
@@ -446,6 +443,9 @@
   <si>
     <t>Year k</t>
   </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +464,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,8 +513,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +583,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -624,6 +636,17 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7088,7 +7111,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -7504,10 +7527,10 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -7518,22 +7541,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7803,11 +7826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF0E41B-5E9B-7C42-9B87-62A3DF143077}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="11" width="11.33203125" style="1" customWidth="1"/>
@@ -9127,11 +9150,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C59E9E-57A6-C84D-80FB-E1089F2BA07E}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
@@ -9852,6 +9875,47 @@
         <v>1.0013278747015961</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="47">
+        <f ca="1">SUM(OFFSET($C$4:$L$12,0,1+C3,9-C3,1))/SUM(OFFSET($C$4:$L$12,0,C3,9-C3,1))</f>
+        <v>2.3181888381445868</v>
+      </c>
+      <c r="D29" s="47">
+        <f t="shared" ref="D29:K29" ca="1" si="2">SUM(OFFSET($C$4:$L$12,0,1+D3,9-D3,1))/SUM(OFFSET($C$4:$L$12,0,D3,9-D3,1))</f>
+        <v>1.3291527165290391</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1367023841163972</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0668192948107127</v>
+      </c>
+      <c r="G29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0313946328110117</v>
+      </c>
+      <c r="H29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0232363198714178</v>
+      </c>
+      <c r="I29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.009350113356043</v>
+      </c>
+      <c r="J29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0026838622321252</v>
+      </c>
+      <c r="K29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0013278747015961</v>
+      </c>
+    </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>9</v>
@@ -9861,35 +9925,35 @@
         <v>2.3181888381445868</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30:K30" si="2">D28</f>
+        <f t="shared" ref="D30:K30" si="3">D28</f>
         <v>1.3291527165290391</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1367023841163972</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0668192948107127</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0313946328110117</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0232363198714178</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.009350113356043</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0026838622321252</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0013278747015961</v>
       </c>
       <c r="L30" s="1">
@@ -9954,47 +10018,47 @@
         <v>0.32986278540735964</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" ref="E33:L33" si="3">1/E32-1/D32</f>
+        <f t="shared" ref="E33:L33" si="4">1/E32-1/D32</f>
         <v>0.19094221055666716</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10540360733962728</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8563637593185391E-2</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9354347174829765E-2</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2408316597744782E-2</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2264516158693244E-3</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6731288159417277E-3</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3261137886447782E-3</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -10765,7 +10829,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -10808,35 +10872,35 @@
         <v>2.1990743034713178</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" ref="D69:K69" si="4">E55/D55</f>
+        <f t="shared" ref="D69:K69" si="5">E55/D55</f>
         <v>1.2797793785616649</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.13506447461418</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.080477414503485</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0273167859259473</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0206458154857807</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0054258936867366</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0020808119146678</v>
       </c>
       <c r="K69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0011063900061816</v>
       </c>
       <c r="L69" s="8"/>
@@ -10846,35 +10910,35 @@
         <v>2011</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" ref="C70:J70" si="5">D56/C56</f>
+        <f t="shared" ref="C70:J70" si="6">D56/C56</f>
         <v>2.1480629429223623</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3517164558223127</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1310246727418669</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0597557590076663</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0259903761246842</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0137571936988383</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0093101543943055</v>
       </c>
       <c r="J70" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0025193344460268</v>
       </c>
       <c r="K70" s="3"/>
@@ -10885,31 +10949,31 @@
         <v>2012</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" ref="C71:I71" si="6">D57/C57</f>
+        <f t="shared" ref="C71:I71" si="7">D57/C57</f>
         <v>2.3880973709459949</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3302479190945389</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1315191427380034</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0491639479568842</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.032286689042365</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.021102350221559</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0100909110187219</v>
       </c>
       <c r="J71" s="3"/>
@@ -10921,27 +10985,27 @@
         <v>2013</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" ref="C72:H72" si="7">D58/C58</f>
+        <f t="shared" ref="C72:H72" si="8">D58/C58</f>
         <v>2.3068201763422094</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2904890321397671</v>
       </c>
       <c r="E72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1562901399486092</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0788836915187729</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.031600737675894</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0276370610307113</v>
       </c>
       <c r="I72" s="3"/>
@@ -10954,23 +11018,23 @@
         <v>2014</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" ref="C73:G73" si="8">D59/C59</f>
+        <f t="shared" ref="C73:G73" si="9">D59/C59</f>
         <v>2.4576472541065484</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.350576107487399</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.124139794268443</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0412010780147976</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0268900559605756</v>
       </c>
       <c r="H73" s="3"/>
@@ -10984,19 +11048,19 @@
         <v>2015</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" ref="C74:F74" si="9">D60/C60</f>
+        <f t="shared" ref="C74:F74" si="10">D60/C60</f>
         <v>2.3202509421513482</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2970052082657499</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1234486452020853</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0640455736519452</v>
       </c>
       <c r="G74" s="3"/>
@@ -11011,15 +11075,15 @@
         <v>2016</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:E75" si="10">D61/C61</f>
+        <f t="shared" ref="C75:E75" si="11">D61/C61</f>
         <v>2.2227494078248022</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2775845178132847</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1105933150263487</v>
       </c>
       <c r="F75" s="3"/>
@@ -11035,11 +11099,11 @@
         <v>2017</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" ref="C76:D76" si="11">D62/C62</f>
+        <f t="shared" ref="C76:D76" si="12">D62/C62</f>
         <v>2.2296083761113632</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3766496276803779</v>
       </c>
       <c r="E76" s="3"/>
@@ -11056,7 +11120,7 @@
         <v>2018</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77" si="12">D63/C63</f>
+        <f t="shared" ref="C77" si="13">D63/C63</f>
         <v>2.3166011995142548</v>
       </c>
       <c r="D77" s="8"/>
@@ -11123,6 +11187,47 @@
         <v>1.0011063900061816</v>
       </c>
     </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="47">
+        <f ca="1">SUM(OFFSET($C$55:$L$63,0,1+C54,9-C54,1))/SUM(OFFSET($C$55:$L$63,0,C54,9-C54,1))</f>
+        <v>2.2825981241637812</v>
+      </c>
+      <c r="D80" s="47">
+        <f t="shared" ref="D80:K80" ca="1" si="14">SUM(OFFSET($C$55:$L$63,0,1+D54,9-D54,1))/SUM(OFFSET($C$55:$L$63,0,D54,9-D54,1))</f>
+        <v>1.3170483383959983</v>
+      </c>
+      <c r="E80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.1301798508039456</v>
+      </c>
+      <c r="F80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0626094713780403</v>
+      </c>
+      <c r="G80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0287527791480457</v>
+      </c>
+      <c r="H80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0207792755763387</v>
+      </c>
+      <c r="I80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0081702493098981</v>
+      </c>
+      <c r="J80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0022946895953404</v>
+      </c>
+      <c r="K80" s="47">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0011063900061816</v>
+      </c>
+    </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
@@ -11132,35 +11237,35 @@
         <v>2.2825981241637812</v>
       </c>
       <c r="D81" s="9">
-        <f t="shared" ref="D81:K81" si="13">D79</f>
+        <f t="shared" ref="D81:K81" si="15">D79</f>
         <v>1.3170483383959983</v>
       </c>
       <c r="E81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1301798508039456</v>
       </c>
       <c r="F81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0626094713780403</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0287527791480457</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0207792755763387</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0081702493098981</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0022946895953404</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0011063900061816</v>
       </c>
       <c r="L81" s="1">
@@ -11225,44 +11330,44 @@
         <v>0.33441502432554238</v>
       </c>
       <c r="E84" s="10">
-        <f t="shared" ref="E84" si="14">1/E83-1/D83</f>
+        <f t="shared" ref="E84" si="16">1/E83-1/D83</f>
         <v>0.18869053589212081</v>
       </c>
       <c r="F84" s="10">
-        <f t="shared" ref="F84" si="15">1/F83-1/E83</f>
+        <f t="shared" ref="F84" si="17">1/F83-1/E83</f>
         <v>0.10203992263863915</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" ref="G84" si="16">1/G83-1/F83</f>
+        <f t="shared" ref="G84" si="18">1/G83-1/F83</f>
         <v>5.5464352647357607E-2</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" ref="H84" si="17">1/H83-1/G83</f>
+        <f t="shared" ref="H84" si="19">1/H83-1/G83</f>
         <v>2.7066208475340359E-2</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" ref="I84" si="18">1/I83-1/H83</f>
+        <f t="shared" ref="I84" si="20">1/I83-1/H83</f>
         <v>2.0122828150284433E-2</v>
       </c>
       <c r="J84" s="10">
-        <f t="shared" ref="J84" si="19">1/J83-1/I83</f>
+        <f t="shared" ref="J84" si="21">1/J83-1/I83</f>
         <v>8.0765478177540206E-3</v>
       </c>
       <c r="K84" s="10">
-        <f t="shared" ref="K84" si="20">1/K83-1/J83</f>
+        <f t="shared" ref="K84" si="22">1/K83-1/J83</f>
         <v>2.2869058404896281E-3</v>
       </c>
       <c r="L84" s="10">
-        <f t="shared" ref="L84" si="21">1/L83-1/K83</f>
+        <f t="shared" ref="L84" si="23">1/L83-1/K83</f>
         <v>1.1051672601698481E-3</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="15">
         <v>0.04</v>
@@ -11476,11 +11581,11 @@
         <v>2624.0536539049135</v>
       </c>
       <c r="K93" s="13">
-        <f t="shared" ref="K93:L93" si="22">$I58*$I83*K$84*E$101</f>
+        <f t="shared" ref="K93:L93" si="24">$I58*$I83*K$84*E$101</f>
         <v>772.7314086136081</v>
       </c>
       <c r="L93" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>388.36638401462181</v>
       </c>
     </row>
@@ -11517,15 +11622,15 @@
         <v>6120.2524108772432</v>
       </c>
       <c r="J94" s="13">
-        <f t="shared" ref="J94:L94" si="23">$H59*$H83*J$84*E$101</f>
+        <f t="shared" ref="J94:L94" si="25">$H59*$H83*J$84*E$101</f>
         <v>2554.6971488982635</v>
       </c>
       <c r="K94" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>752.30730267714955</v>
       </c>
       <c r="L94" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>378.10145097209767</v>
       </c>
     </row>
@@ -11558,19 +11663,19 @@
         <v>8473.5971458952426</v>
       </c>
       <c r="I95" s="13">
-        <f t="shared" ref="I95:L95" si="24">$G60*$G83*I$84*E$101</f>
+        <f t="shared" ref="I95:L95" si="26">$G60*$G83*I$84*E$101</f>
         <v>6551.8319239438388</v>
       </c>
       <c r="J95" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2734.845756755451</v>
       </c>
       <c r="K95" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>805.357470802374</v>
       </c>
       <c r="L95" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>404.76388728114551</v>
       </c>
     </row>
@@ -11599,23 +11704,23 @@
         <v>17721.159519703688</v>
       </c>
       <c r="H96" s="13">
-        <f t="shared" ref="H96:L96" si="25">$F61*$F83*H$84*E$101</f>
+        <f t="shared" ref="H96:L96" si="27">$F61*$F83*H$84*E$101</f>
         <v>8993.711421749189</v>
       </c>
       <c r="I96" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6953.9871430280455</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2902.7121653014547</v>
       </c>
       <c r="K96" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>854.79077645968312</v>
       </c>
       <c r="L96" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>429.6085279337924</v>
       </c>
     </row>
@@ -11640,27 +11745,27 @@
         <v>28120.693608503851</v>
       </c>
       <c r="G97" s="13">
-        <f t="shared" ref="G97:L97" si="26">$E62*$E83*G$84*E$101</f>
+        <f t="shared" ref="G97:L97" si="28">$E62*$E83*G$84*E$101</f>
         <v>15896.561539098397</v>
       </c>
       <c r="H97" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8067.7049897194693</v>
       </c>
       <c r="I97" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6237.9938760967007</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2603.8444332437039</v>
       </c>
       <c r="K97" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>766.78019663085001</v>
       </c>
       <c r="L97" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>385.375369734</v>
       </c>
     </row>
@@ -11681,31 +11786,31 @@
         <v>62745.65879135565</v>
       </c>
       <c r="F98" s="13">
-        <f t="shared" ref="F98:L98" si="27">$D63*$D83*F$84*E$101</f>
+        <f t="shared" ref="F98:L98" si="29">$D63*$D83*F$84*E$101</f>
         <v>35288.810984916185</v>
       </c>
       <c r="G98" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>19948.681326042788</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>10124.206764877972</v>
       </c>
       <c r="I98" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7828.092360853866</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3267.5785070634347</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>962.23662910292558</v>
       </c>
       <c r="L98" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>483.60964242620145</v>
       </c>
     </row>
@@ -11722,35 +11827,35 @@
         <v>102091.8671466605</v>
       </c>
       <c r="E99" s="13">
-        <f t="shared" ref="E99:L99" si="28">$C64*$C83*E$84*E$101</f>
+        <f t="shared" ref="E99:L99" si="30">$C64*$C83*E$84*E$101</f>
         <v>59908.552037760797</v>
       </c>
       <c r="F99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>33693.192644138937</v>
       </c>
       <c r="G99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>19046.682054609137</v>
       </c>
       <c r="H99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9666.4307857789518</v>
       </c>
       <c r="I99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7474.1374557249956</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3119.8317269855083</v>
       </c>
       <c r="K99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>918.72815231631546</v>
       </c>
       <c r="L99" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>461.74275618960348</v>
       </c>
       <c r="M99" s="3"/>
@@ -11765,44 +11870,44 @@
         <v>1.0605960588272993</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" ref="F101:L101" si="29">E101*(1+$F87)</f>
+        <f t="shared" ref="F101:L101" si="31">E101*(1+$F87)</f>
         <v>1.1030199011803914</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.147140697227607</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.1930263251167113</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.2407473781213798</v>
       </c>
       <c r="J101" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.2903772732462351</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.3419923641760845</v>
       </c>
       <c r="L101" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.3956720587431279</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C107" s="46" t="s">
+      <c r="C107" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="46"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="46"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" s="53"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
@@ -11815,13 +11920,13 @@
         <v>18</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -11835,13 +11940,13 @@
         <v>19</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -11869,7 +11974,7 @@
         <v>272224</v>
       </c>
       <c r="G110" s="13">
-        <f t="shared" ref="G110:G119" si="30">F110-B110</f>
+        <f t="shared" ref="G110:G119" si="32">F110-B110</f>
         <v>0</v>
       </c>
     </row>
@@ -11886,19 +11991,19 @@
         <v>1.0013278747015961</v>
       </c>
       <c r="D111" s="13">
-        <f t="shared" ref="D111:D119" si="31">B111*C111</f>
+        <f t="shared" ref="D111:D119" si="33">B111*C111</f>
         <v>267592.85857950512</v>
       </c>
       <c r="E111" s="13">
-        <f t="shared" ref="E111:E119" si="32">D111-B111</f>
+        <f t="shared" ref="E111:E119" si="34">D111-B111</f>
         <v>354.85857950511854</v>
       </c>
       <c r="F111" s="13">
-        <f t="shared" ref="F111:F119" si="33">SUM(C91:L91)</f>
+        <f t="shared" ref="F111:F119" si="35">SUM(C91:L91)</f>
         <v>267592.11886904552</v>
       </c>
       <c r="G111" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>354.11886904551648</v>
       </c>
     </row>
@@ -11915,19 +12020,19 @@
         <v>1.004015300766482</v>
       </c>
       <c r="D112" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>251820.08963114367</v>
       </c>
       <c r="E112" s="13">
+        <f t="shared" si="34"/>
+        <v>1007.0896311436663</v>
+      </c>
+      <c r="F112" s="13">
+        <f t="shared" si="35"/>
+        <v>251818.92027337267</v>
+      </c>
+      <c r="G112" s="13">
         <f t="shared" si="32"/>
-        <v>1007.0896311436663</v>
-      </c>
-      <c r="F112" s="13">
-        <f t="shared" si="33"/>
-        <v>251818.92027337267</v>
-      </c>
-      <c r="G112" s="13">
-        <f t="shared" si="30"/>
         <v>1005.9202733726706</v>
       </c>
     </row>
@@ -11944,19 +12049,19 @@
         <v>1.0134029576398502</v>
       </c>
       <c r="D113" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>287069.6960195133</v>
       </c>
       <c r="E113" s="13">
+        <f t="shared" si="34"/>
+        <v>3796.6960195132997</v>
+      </c>
+      <c r="F113" s="13">
+        <f t="shared" si="35"/>
+        <v>287058.15144653316</v>
+      </c>
+      <c r="G113" s="13">
         <f t="shared" si="32"/>
-        <v>3796.6960195132997</v>
-      </c>
-      <c r="F113" s="13">
-        <f t="shared" si="33"/>
-        <v>287058.15144653316</v>
-      </c>
-      <c r="G113" s="13">
-        <f t="shared" si="30"/>
         <v>3785.1514465331566</v>
       </c>
     </row>
@@ -11973,19 +12078,19 @@
         <v>1.0369507129222109</v>
       </c>
       <c r="D114" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>274278.6483214894</v>
       </c>
       <c r="E114" s="13">
+        <f t="shared" si="34"/>
+        <v>9773.648321489396</v>
+      </c>
+      <c r="F114" s="13">
+        <f t="shared" si="35"/>
+        <v>274310.35831342475</v>
+      </c>
+      <c r="G114" s="13">
         <f t="shared" si="32"/>
-        <v>9773.648321489396</v>
-      </c>
-      <c r="F114" s="13">
-        <f t="shared" si="33"/>
-        <v>274310.35831342475</v>
-      </c>
-      <c r="G114" s="13">
-        <f t="shared" si="30"/>
         <v>9805.3583134247456</v>
       </c>
     </row>
@@ -12002,19 +12107,19 @@
         <v>1.0695053997975204</v>
       </c>
       <c r="D115" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>288630.6307595562</v>
       </c>
       <c r="E115" s="13">
+        <f t="shared" si="34"/>
+        <v>18757.630759556196</v>
+      </c>
+      <c r="F115" s="13">
+        <f t="shared" si="35"/>
+        <v>288843.39618467801</v>
+      </c>
+      <c r="G115" s="13">
         <f t="shared" si="32"/>
-        <v>18757.630759556196</v>
-      </c>
-      <c r="F115" s="13">
-        <f t="shared" si="33"/>
-        <v>288843.39618467801</v>
-      </c>
-      <c r="G115" s="13">
-        <f t="shared" si="30"/>
         <v>18970.396184678015</v>
       </c>
     </row>
@@ -12031,19 +12136,19 @@
         <v>1.1409689964082399</v>
       </c>
       <c r="D116" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>300547.20721988013</v>
       </c>
       <c r="E116" s="13">
+        <f t="shared" si="34"/>
+        <v>37133.207219880132</v>
+      </c>
+      <c r="F116" s="13">
+        <f t="shared" si="35"/>
+        <v>301269.96955417586</v>
+      </c>
+      <c r="G116" s="13">
         <f t="shared" si="32"/>
-        <v>37133.207219880132</v>
-      </c>
-      <c r="F116" s="13">
-        <f t="shared" si="33"/>
-        <v>301269.96955417586</v>
-      </c>
-      <c r="G116" s="13">
-        <f t="shared" si="30"/>
         <v>37855.969554175856</v>
       </c>
     </row>
@@ -12060,19 +12165,19 @@
         <v>1.2969421784201394</v>
       </c>
       <c r="D117" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>265640.99392619135</v>
       </c>
       <c r="E117" s="13">
+        <f t="shared" si="34"/>
+        <v>60819.993926191353</v>
+      </c>
+      <c r="F117" s="13">
+        <f t="shared" si="35"/>
+        <v>266899.95401302696</v>
+      </c>
+      <c r="G117" s="13">
         <f t="shared" si="32"/>
-        <v>60819.993926191353</v>
-      </c>
-      <c r="F117" s="13">
-        <f t="shared" si="33"/>
-        <v>266899.95401302696</v>
-      </c>
-      <c r="G117" s="13">
-        <f t="shared" si="30"/>
         <v>62078.95401302696</v>
       </c>
     </row>
@@ -12089,19 +12194,19 @@
         <v>1.7238342196282179</v>
       </c>
       <c r="D118" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>327983.59396334324</v>
       </c>
       <c r="E118" s="13">
+        <f t="shared" si="34"/>
+        <v>137719.59396334324</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="35"/>
+        <v>330912.87500663899</v>
+      </c>
+      <c r="G118" s="13">
         <f t="shared" si="32"/>
-        <v>137719.59396334324</v>
-      </c>
-      <c r="F118" s="13">
-        <f t="shared" si="33"/>
-        <v>330912.87500663899</v>
-      </c>
-      <c r="G118" s="13">
-        <f t="shared" si="30"/>
         <v>140648.87500663899</v>
       </c>
     </row>
@@ -12118,19 +12223,19 @@
         <v>3.9961732467538189</v>
       </c>
       <c r="D119" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>308860.23406835593</v>
       </c>
       <c r="E119" s="13">
+        <f t="shared" si="34"/>
+        <v>231571.23406835593</v>
+      </c>
+      <c r="F119" s="13">
+        <f t="shared" si="35"/>
+        <v>313670.16476016474</v>
+      </c>
+      <c r="G119" s="13">
         <f t="shared" si="32"/>
-        <v>231571.23406835593</v>
-      </c>
-      <c r="F119" s="13">
-        <f t="shared" si="33"/>
-        <v>313670.16476016474</v>
-      </c>
-      <c r="G119" s="13">
-        <f t="shared" si="30"/>
         <v>236381.16476016474</v>
       </c>
     </row>
@@ -12359,11 +12464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE60E96-7E9F-8147-B8EF-C1FAB6D33EAF}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
@@ -12373,7 +12478,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -13084,6 +13189,47 @@
         <v>0.99968418346737176</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="47">
+        <f ca="1">SUM(OFFSET($C$4:$L$12,0,1+C3,9-C3,1))/SUM(OFFSET($C$4:$L$12,0,C3,9-C3,1))</f>
+        <v>2.1410101345443966</v>
+      </c>
+      <c r="D29" s="47">
+        <f t="shared" ref="D29:K29" ca="1" si="2">SUM(OFFSET($C$4:$L$12,0,1+D3,9-D3,1))/SUM(OFFSET($C$4:$L$12,0,D3,9-D3,1))</f>
+        <v>1.0848802637887207</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96561458054480909</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96178475487275794</v>
+      </c>
+      <c r="G29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97409800878311259</v>
+      </c>
+      <c r="H29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98667252951623385</v>
+      </c>
+      <c r="I29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99266066239545026</v>
+      </c>
+      <c r="J29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99814248795937455</v>
+      </c>
+      <c r="K29" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99968418346737176</v>
+      </c>
+    </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>9</v>
@@ -13093,35 +13239,35 @@
         <v>2.1410101345443966</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30:K30" si="2">D28</f>
+        <f t="shared" ref="D30:K30" si="3">D28</f>
         <v>1.0848802637887207</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96561458054480909</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96178475487275794</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97409800878311259</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98667252951623385</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99266066239545026</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99814248795937455</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99968418346737176</v>
       </c>
       <c r="L30" s="1">
@@ -13186,47 +13332,47 @@
         <v>0.55561683808932028</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" ref="E33:L33" si="3">1/E32-1/D32</f>
+        <f t="shared" ref="E33:L33" si="4">1/E32-1/D32</f>
         <v>8.8493493524379074E-2</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.8892042789364201E-2</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.1737544290854522E-2</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.7208292255426425E-2</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3636989843762493E-2</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.4097011122327139E-3</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.8615567229915975E-3</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1591630422012074E-4</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5">
         <v>0</v>
@@ -13317,35 +13463,35 @@
         <v>1.2329713721618956</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40:C48" si="4">C5*B40</f>
+        <f t="shared" ref="C40:C48" si="5">C5*B40</f>
         <v>169204.36031589343</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" ref="D40:D47" si="5">(D5-C5)*B41</f>
+        <f t="shared" ref="D40:D47" si="6">(D5-C5)*B41</f>
         <v>171785.7216189536</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" ref="E40:E46" si="6">(E5-D5)*B42</f>
+        <f t="shared" ref="E40:E46" si="7">(E5-D5)*B42</f>
         <v>34390.177690029625</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ref="F40:F45" si="7">(F5-E5)*B43</f>
+        <f t="shared" ref="F40:F45" si="8">(F5-E5)*B43</f>
         <v>-19749.549851924974</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G44" si="8">(G5-F5)*B44</f>
+        <f t="shared" ref="G40:G44" si="9">(G5-F5)*B44</f>
         <v>-13641.964461994079</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" ref="H40:H43" si="9">(H5-G5)*B45</f>
+        <f t="shared" ref="H40:H43" si="10">(H5-G5)*B45</f>
         <v>-7638.61006910168</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" ref="I40:I42" si="10">(I5-H5)*B46</f>
+        <f t="shared" ref="I40:I42" si="11">(I5-H5)*B46</f>
         <v>-3528.9930898321822</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" ref="J40:J41" si="11">(J5-I5)*B47</f>
+        <f t="shared" ref="J40:J41" si="12">(J5-I5)*B47</f>
         <v>-1861.4481737413623</v>
       </c>
       <c r="K40" s="3">
@@ -13363,35 +13509,35 @@
         <v>1.1885488647581441</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131964.58045409675</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>172377.44225074039</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28718.733464955578</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9286.530108588353</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-12146.748272458048</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5238.0355380059236</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4007.1263573543929</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1935.9239881539979</v>
       </c>
       <c r="K41" s="3"/>
@@ -13406,31 +13552,31 @@
         <v>1.1559723593287268</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155444.75913129322</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>182669.25666337612</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27728.608094768017</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-516.35538005923013</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-17943.889437314909</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-8455.5844027640669</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4419.19842053307</v>
       </c>
       <c r="J42" s="3"/>
@@ -13446,27 +13592,27 @@
         <v>1.1263573543928924</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143804.29615004937</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>177340.0345508391</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26989.539980256668</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-15418.351431391908</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-11606.920039486673</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-6451.0602171767023</v>
       </c>
       <c r="I43" s="3"/>
@@ -13483,23 +13629,23 @@
         <v>1.1006910167818362</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155493.51924975321</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>177329.80454096745</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22605.202369200397</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-10272.589338598224</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8598.0473840078957</v>
       </c>
       <c r="H44" s="3"/>
@@ -13517,19 +13663,19 @@
         <v>1.0779861796643635</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>169855.04837117475</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175045.87364264563</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15199.587364264562</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-12484.033563672259</v>
       </c>
       <c r="G45" s="3"/>
@@ -13548,15 +13694,15 @@
         <v>1.056268509378085</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140249.22013820338</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>149081.22408687067</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31890.737413622901</v>
       </c>
       <c r="F46" s="3"/>
@@ -13576,11 +13722,11 @@
         <v>1.0335636722606121</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>163783.6673247779</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>180871.04540967423</v>
       </c>
       <c r="E47" s="3"/>
@@ -13601,7 +13747,7 @@
         <v>1.0098716683119446</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149077.25567620926</v>
       </c>
       <c r="D48" s="3"/>
@@ -13997,7 +14143,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -14040,35 +14186,35 @@
         <v>1.9978004498435158</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" ref="D69:K69" si="12">E55/D55</f>
+        <f t="shared" ref="D69:K69" si="13">E55/D55</f>
         <v>1.0784703528160946</v>
       </c>
       <c r="E69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96250079080062068</v>
       </c>
       <c r="F69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97392959729890438</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96851849902889386</v>
       </c>
       <c r="H69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99019987948216848</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99339632822139368</v>
       </c>
       <c r="J69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99864946501527541</v>
       </c>
       <c r="K69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99974859047149822</v>
       </c>
       <c r="L69" s="8"/>
@@ -14078,35 +14224,35 @@
         <v>2011</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" ref="C70:J77" si="13">D56/C56</f>
+        <f t="shared" ref="C70:J77" si="14">D56/C56</f>
         <v>2.0152558793298292</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1008538943270512</v>
       </c>
       <c r="E70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94738788376442318</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96164008313369898</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97766414780066468</v>
       </c>
       <c r="H70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98944521710069155</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.99437324905647673</v>
       </c>
       <c r="J70" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.99829620836177535</v>
       </c>
       <c r="K70" s="3"/>
@@ -14117,31 +14263,31 @@
         <v>2012</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3062402173187757</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0943633521579377</v>
       </c>
       <c r="E71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97211760936537928</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96248389372981813</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98319135534782065</v>
       </c>
       <c r="H71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98692146071379616</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.99359776056204108</v>
       </c>
       <c r="J71" s="3"/>
@@ -14153,27 +14299,27 @@
         <v>2013</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1751393722389074</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0820096381677566</v>
       </c>
       <c r="E72" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.99858858605766154</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95088256447988151</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97565914418183552</v>
       </c>
       <c r="H72" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98696120079604499</v>
       </c>
       <c r="I72" s="3"/>
@@ -14186,23 +14332,23 @@
         <v>2014</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.233204009188972</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0840417762361014</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.955711429625549</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96511458177346421</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97991003594097947</v>
       </c>
       <c r="H73" s="3"/>
@@ -14216,19 +14362,19 @@
         <v>2015</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1404321247378859</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0679195259266583</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97109801666854334</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97508938289403135</v>
       </c>
       <c r="G74" s="3"/>
@@ -14243,15 +14389,15 @@
         <v>2016</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0305603237657537</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.044069430941259</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96533180809648689</v>
       </c>
       <c r="F75" s="3"/>
@@ -14267,11 +14413,11 @@
         <v>2017</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0629736403522534</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1102225432896882</v>
       </c>
       <c r="E76" s="3"/>
@@ -14288,7 +14434,7 @@
         <v>2018</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.1043289502793496</v>
       </c>
       <c r="D77" s="8"/>
@@ -14355,6 +14501,47 @@
         <v>0.99974859047149822</v>
       </c>
     </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="47">
+        <f ca="1">SUM(OFFSET($C$55:$L$63,0,1+C54,9-C54,1))/SUM(OFFSET($C$55:$L$63,0,C54,9-C54,1))</f>
+        <v>2.1108885101927282</v>
+      </c>
+      <c r="D80" s="47">
+        <f t="shared" ref="D80:K80" ca="1" si="15">SUM(OFFSET($C$55:$L$63,0,1+D54,9-D54,1))/SUM(OFFSET($C$55:$L$63,0,D54,9-D54,1))</f>
+        <v>1.0819923981491619</v>
+      </c>
+      <c r="E80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.96742851473361613</v>
+      </c>
+      <c r="F80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.96484851547566308</v>
+      </c>
+      <c r="G80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.97673036513632383</v>
+      </c>
+      <c r="H80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.98843136701299272</v>
+      </c>
+      <c r="I80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.99378769614566975</v>
+      </c>
+      <c r="J80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.99847727432318867</v>
+      </c>
+      <c r="K80" s="47">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.99974859047149822</v>
+      </c>
+    </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
@@ -14364,35 +14551,35 @@
         <v>2.1108885101927282</v>
       </c>
       <c r="D81" s="9">
-        <f t="shared" ref="D81:K81" si="14">D79</f>
+        <f t="shared" ref="D81:K81" si="16">D79</f>
         <v>1.0819923981491619</v>
       </c>
       <c r="E81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96742851473361613</v>
       </c>
       <c r="F81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.96484851547566308</v>
       </c>
       <c r="G81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.97673036513632383</v>
       </c>
       <c r="H81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.98843136701299272</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.99378769614566975</v>
       </c>
       <c r="J81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.99847727432318867</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.99974859047149822</v>
       </c>
       <c r="L81" s="1">
@@ -14457,44 +14644,44 @@
         <v>0.54407546684484787</v>
       </c>
       <c r="E84" s="10">
-        <f t="shared" ref="E84:L84" si="15">1/E83-1/D83</f>
+        <f t="shared" ref="E84:L84" si="17">1/E83-1/D83</f>
         <v>8.4767144476432854E-2</v>
       </c>
       <c r="F84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.6434745214926512E-2</v>
       </c>
       <c r="G84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-3.804001932346246E-2</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.4296614301063002E-2</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.1798123115210224E-2</v>
       </c>
       <c r="J84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-6.2622454947505179E-3</v>
       </c>
       <c r="K84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.5254314144095282E-3</v>
       </c>
       <c r="L84" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.514727511475634E-4</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="15">
         <v>0.04</v>
@@ -14541,43 +14728,43 @@
         <v>2010</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" ref="C90:C99" si="16">C4</f>
+        <f t="shared" ref="C90:C99" si="18">C4</f>
         <v>140518</v>
       </c>
       <c r="D90" s="3">
-        <f t="shared" ref="D90:L90" si="17">D4-C4</f>
+        <f t="shared" ref="D90:L90" si="19">D4-C4</f>
         <v>145485</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23712</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-12565</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-8629</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-10385</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3197</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2177</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-452</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-86</v>
       </c>
     </row>
@@ -14586,39 +14773,39 @@
         <v>2011</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>137233</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ref="D91:K91" si="18">D5-C5</f>
+        <f t="shared" ref="D91:K91" si="20">D5-C5</f>
         <v>144534</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29750</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-17534</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-12394</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-7086</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3341</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-1801</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-555</v>
       </c>
       <c r="L91" s="13">
@@ -14631,35 +14818,35 @@
         <v>2012</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>111030</v>
       </c>
       <c r="D92" s="3">
-        <f t="shared" ref="D92:J92" si="19">D6-C6</f>
+        <f t="shared" ref="D92:J92" si="21">D6-C6</f>
         <v>149119</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25497</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-8437</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-11268</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-4959</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-3877</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1917</v>
       </c>
       <c r="K92" s="13">
@@ -14676,31 +14863,31 @@
         <v>2013</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>134471</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" ref="D93:I93" si="20">D7-C7</f>
+        <f t="shared" ref="D93:I93" si="22">D7-C7</f>
         <v>162177</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25192</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-479</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-16988</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-8181</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-4376</v>
       </c>
       <c r="J93" s="13">
@@ -14721,7 +14908,7 @@
         <v>2014</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>127672</v>
       </c>
       <c r="D94" s="3">
@@ -14766,7 +14953,7 @@
         <v>2015</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>141269</v>
       </c>
       <c r="D95" s="3">
@@ -14811,7 +14998,7 @@
         <v>2016</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>157567</v>
       </c>
       <c r="D96" s="3">
@@ -14827,27 +15014,27 @@
         <v>-12362</v>
       </c>
       <c r="G96" s="13">
-        <f t="shared" ref="G96:L96" si="21">$F61*$F83*G$84*D$101</f>
+        <f t="shared" ref="G96:L96" si="23">$F61*$F83*G$84*D$101</f>
         <v>-12461.223714596652</v>
       </c>
       <c r="H96" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-8277.4975871559691</v>
       </c>
       <c r="I96" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-4180.2241162235923</v>
       </c>
       <c r="J96" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2307.5444253777223</v>
       </c>
       <c r="K96" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-584.58276507207972</v>
       </c>
       <c r="L96" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-100.22535278228219</v>
       </c>
     </row>
@@ -14856,7 +15043,7 @@
         <v>2017</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>132778</v>
       </c>
       <c r="D97" s="3">
@@ -14868,31 +15055,31 @@
         <v>31579</v>
       </c>
       <c r="F97" s="13">
-        <f t="shared" ref="F97:L97" si="22">$E62*$E83*F$84*D$101</f>
+        <f t="shared" ref="F97:L97" si="24">$E62*$E83*F$84*D$101</f>
         <v>-10669.852307280293</v>
       </c>
       <c r="G97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-11585.55222426527</v>
       </c>
       <c r="H97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-7695.8236830217566</v>
       </c>
       <c r="I97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-3886.4726223406192</v>
       </c>
       <c r="J97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2145.3893343324135</v>
       </c>
       <c r="K97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-543.50313494610077</v>
       </c>
       <c r="L97" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-93.182345927582574</v>
       </c>
     </row>
@@ -14901,7 +15088,7 @@
         <v>2018</v>
       </c>
       <c r="C98" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>158465</v>
       </c>
       <c r="D98" s="3">
@@ -14909,35 +15096,35 @@
         <v>179103</v>
       </c>
       <c r="E98" s="13">
-        <f t="shared" ref="E98:L98" si="23">$D63*$D83*E$84*D$101</f>
+        <f t="shared" ref="E98:L98" si="25">$D63*$D83*E$84*D$101</f>
         <v>28818.706233015349</v>
       </c>
       <c r="F98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-12882.376946038084</v>
       </c>
       <c r="G98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-13987.958463038773</v>
       </c>
       <c r="H98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-9291.647038758676</v>
       </c>
       <c r="I98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-4692.3803506902395</v>
       </c>
       <c r="J98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-2590.2621053172411</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-656.20517080182151</v>
       </c>
       <c r="L98" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-112.50484733853038</v>
       </c>
     </row>
@@ -14946,43 +15133,43 @@
         <v>2019</v>
       </c>
       <c r="C99" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>147620</v>
       </c>
       <c r="D99" s="13">
-        <f t="shared" ref="D99:L99" si="24">$C64*$C83*D$84*D$101</f>
+        <f t="shared" ref="D99:L99" si="26">$C64*$C83*D$84*D$101</f>
         <v>168887.89935114357</v>
       </c>
       <c r="E99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>27365.304393425649</v>
       </c>
       <c r="F99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-12232.685381112455</v>
       </c>
       <c r="G99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-13282.509564746651</v>
       </c>
       <c r="H99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-8823.0452635867205</v>
       </c>
       <c r="I99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-4455.7314817713868</v>
       </c>
       <c r="J99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-2459.6284926058329</v>
       </c>
       <c r="K99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-623.11104802336627</v>
       </c>
       <c r="L99" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-106.83093710944269</v>
       </c>
       <c r="M99" s="3"/>
@@ -14997,52 +15184,52 @@
         <v>1.0605960588272993</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" ref="F101:L101" si="25">E101*(1+$F87)</f>
+        <f t="shared" ref="F101:L101" si="27">E101*(1+$F87)</f>
         <v>1.1030199011803914</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.147140697227607</v>
       </c>
       <c r="H101" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.1930263251167113</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.2407473781213798</v>
       </c>
       <c r="J101" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.2903772732462351</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.3419923641760845</v>
       </c>
       <c r="L101" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.3956720587431279</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C107" s="46" t="s">
+      <c r="C107" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="46"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="46"/>
-      <c r="G107" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" s="46"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" s="53"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>16</v>
@@ -15051,13 +15238,13 @@
         <v>18</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -15074,13 +15261,13 @@
         <v>19</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -15108,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="13">
-        <f t="shared" ref="G110:G119" si="26">SUM(C90:L90)</f>
+        <f t="shared" ref="G110:G119" si="28">SUM(C90:L90)</f>
         <v>272224</v>
       </c>
       <c r="H110" s="13">
@@ -15133,19 +15320,19 @@
         <v>0.99968418346737176</v>
       </c>
       <c r="E111" s="13">
-        <f t="shared" ref="E111:E119" si="27">C111*D111</f>
+        <f t="shared" ref="E111:E119" si="29">C111*D111</f>
         <v>268721.10662113031</v>
       </c>
       <c r="F111" s="13">
-        <f t="shared" ref="F111:F119" si="28">E111-B111</f>
+        <f t="shared" ref="F111:F119" si="30">E111-B111</f>
         <v>1483.1066211303114</v>
       </c>
       <c r="G111" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>268721.80224462796</v>
       </c>
       <c r="H111" s="13">
-        <f t="shared" ref="H111:H119" si="29">G111-B111</f>
+        <f t="shared" ref="H111:H119" si="31">G111-B111</f>
         <v>1483.8022446279647</v>
       </c>
     </row>
@@ -15166,19 +15353,19 @@
         <v>0.99782725805975825</v>
       </c>
       <c r="E112" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>254633.54232975357</v>
       </c>
       <c r="F112" s="13">
+        <f t="shared" si="30"/>
+        <v>3820.5423297535744</v>
+      </c>
+      <c r="G112" s="13">
         <f t="shared" si="28"/>
-        <v>3820.5423297535744</v>
-      </c>
-      <c r="G112" s="13">
-        <f t="shared" si="26"/>
         <v>254641.45210453306</v>
       </c>
       <c r="H112" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3828.4521045330621</v>
       </c>
     </row>
@@ -15199,19 +15386,19 @@
         <v>0.99050386694183545</v>
       </c>
       <c r="E113" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>289044.87643549865</v>
       </c>
       <c r="F113" s="13">
+        <f t="shared" si="30"/>
+        <v>5771.8764354986488</v>
+      </c>
+      <c r="G113" s="13">
         <f t="shared" si="28"/>
-        <v>5771.8764354986488</v>
-      </c>
-      <c r="G113" s="13">
-        <f t="shared" si="26"/>
         <v>289067.86520188098</v>
       </c>
       <c r="H113" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5794.8652018809807</v>
       </c>
     </row>
@@ -15232,19 +15419,19 @@
         <v>0.97730295589111205</v>
       </c>
       <c r="E114" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>275219.26271145197</v>
       </c>
       <c r="F114" s="13">
+        <f t="shared" si="30"/>
+        <v>10714.262711451971</v>
+      </c>
+      <c r="G114" s="13">
         <f t="shared" si="28"/>
-        <v>10714.262711451971</v>
-      </c>
-      <c r="G114" s="13">
-        <f t="shared" si="26"/>
         <v>275241.3952098841</v>
       </c>
       <c r="H114" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>10736.395209884096</v>
       </c>
     </row>
@@ -15265,19 +15452,19 @@
         <v>0.95198886331138233</v>
       </c>
       <c r="E115" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>293896.09790376335</v>
       </c>
       <c r="F115" s="13">
+        <f t="shared" si="30"/>
+        <v>24023.097903763351</v>
+      </c>
+      <c r="G115" s="13">
         <f t="shared" si="28"/>
-        <v>24023.097903763351</v>
-      </c>
-      <c r="G115" s="13">
-        <f t="shared" si="26"/>
         <v>293810.7504476062</v>
       </c>
       <c r="H115" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>23937.750447606202</v>
       </c>
     </row>
@@ -15298,19 +15485,19 @@
         <v>0.9156083755415334</v>
       </c>
       <c r="E116" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>298151.38654434058</v>
       </c>
       <c r="F116" s="13">
+        <f t="shared" si="30"/>
+        <v>34737.386544340581</v>
+      </c>
+      <c r="G116" s="13">
         <f t="shared" si="28"/>
-        <v>34737.386544340581</v>
-      </c>
-      <c r="G116" s="13">
-        <f t="shared" si="26"/>
         <v>297720.70203879173</v>
       </c>
       <c r="H116" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34306.702038791729</v>
       </c>
     </row>
@@ -15331,19 +15518,19 @@
         <v>0.88412479749185169</v>
       </c>
       <c r="E117" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>272838.26013159298</v>
       </c>
       <c r="F117" s="13">
+        <f t="shared" si="30"/>
+        <v>68017.260131592979</v>
+      </c>
+      <c r="G117" s="13">
         <f t="shared" si="28"/>
-        <v>68017.260131592979</v>
-      </c>
-      <c r="G117" s="13">
-        <f t="shared" si="26"/>
         <v>271977.22434788593</v>
       </c>
       <c r="H117" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>67156.224347885931</v>
       </c>
     </row>
@@ -15364,19 +15551,19 @@
         <v>0.95916954352510941</v>
       </c>
       <c r="E118" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>323784.94446868415</v>
       </c>
       <c r="F118" s="13">
+        <f t="shared" si="30"/>
+        <v>133520.94446868415</v>
+      </c>
+      <c r="G118" s="13">
         <f t="shared" si="28"/>
-        <v>133520.94446868415</v>
-      </c>
-      <c r="G118" s="13">
-        <f t="shared" si="26"/>
         <v>322173.37131103192</v>
       </c>
       <c r="H118" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>131909.37131103192</v>
       </c>
     </row>
@@ -15397,19 +15584,19 @@
         <v>2.0535917134335815</v>
       </c>
       <c r="E119" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>303151.20873706532</v>
       </c>
       <c r="F119" s="13">
+        <f t="shared" si="30"/>
+        <v>225862.20873706532</v>
+      </c>
+      <c r="G119" s="13">
         <f t="shared" si="28"/>
-        <v>225862.20873706532</v>
-      </c>
-      <c r="G119" s="13">
-        <f t="shared" si="26"/>
         <v>301889.66157561337</v>
       </c>
       <c r="H119" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>224600.66157561337</v>
       </c>
     </row>
@@ -15640,13 +15827,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB8843-27E5-2D45-B2ED-6644A70E32A0}">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
@@ -15656,18 +15843,33 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -15700,10 +15902,47 @@
         <v>9</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51">
+        <v>1</v>
+      </c>
+      <c r="S3" s="51">
+        <v>2</v>
+      </c>
+      <c r="T3" s="51">
+        <v>3</v>
+      </c>
+      <c r="U3" s="51">
+        <v>4</v>
+      </c>
+      <c r="V3" s="51">
+        <v>5</v>
+      </c>
+      <c r="W3" s="51">
+        <v>6</v>
+      </c>
+      <c r="X3" s="51">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="51">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="51">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2010</v>
       </c>
@@ -15744,8 +15983,48 @@
         <f>SUM(C4:L4)</f>
         <v>1090</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" s="50">
+        <v>2010</v>
+      </c>
+      <c r="P4" s="48">
+        <v>10742</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>291</v>
+      </c>
+      <c r="R4" s="48">
+        <v>357</v>
+      </c>
+      <c r="S4" s="48">
+        <v>188</v>
+      </c>
+      <c r="T4" s="48">
+        <v>115</v>
+      </c>
+      <c r="U4" s="48">
+        <v>78</v>
+      </c>
+      <c r="V4" s="48">
+        <v>26</v>
+      </c>
+      <c r="W4" s="48">
+        <v>24</v>
+      </c>
+      <c r="X4" s="48">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="48">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="52">
+        <f>SUM(Q4:Z4)</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2011</v>
       </c>
@@ -15787,8 +16066,49 @@
         <f t="shared" ref="M5:M13" si="1">SUM(C5:L5)</f>
         <v>1031.960714950661</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" s="50">
+        <v>2011</v>
+      </c>
+      <c r="P5" s="48">
+        <v>10320</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>281</v>
+      </c>
+      <c r="R5" s="48">
+        <v>335</v>
+      </c>
+      <c r="S5" s="48">
+        <v>203</v>
+      </c>
+      <c r="T5" s="48">
+        <v>108</v>
+      </c>
+      <c r="U5" s="48">
+        <v>48</v>
+      </c>
+      <c r="V5" s="48">
+        <v>30</v>
+      </c>
+      <c r="W5" s="48">
+        <v>16</v>
+      </c>
+      <c r="X5" s="48">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="48">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="52">
+        <f t="shared" ref="Z5:Z12" ca="1" si="2">SUMPRODUCT(OFFSET($D$18:$L$26,0,L$17-1,9-K$17,1),OFFSET($B$18:$B$26,0,0,9-K$17))/SUM(OFFSET($B$18:$B$26,0,0,9-K$17))*$B19/10000</f>
+        <v>0.96071495066095702</v>
+      </c>
+      <c r="AA5" s="52">
+        <f t="shared" ref="AA5:AA12" ca="1" si="3">SUM(Q5:Z5)</f>
+        <v>1031.960714950661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2012</v>
       </c>
@@ -15820,7 +16140,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="17">
-        <f t="shared" ref="K6:K13" si="2">SUMPRODUCT(K$18:K$19,$B$18:$B$19)/SUM($B$18:$B$19)*$B20/10000</f>
+        <f t="shared" ref="K6:K13" si="4">SUMPRODUCT(K$18:K$19,$B$18:$B$19)/SUM($B$18:$B$19)*$B20/10000</f>
         <v>1.895546481815592</v>
       </c>
       <c r="L6" s="17">
@@ -15831,8 +16151,50 @@
         <f t="shared" si="1"/>
         <v>976.82470306345772</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" s="50">
+        <v>2012</v>
+      </c>
+      <c r="P6" s="48">
+        <v>9981</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>230</v>
+      </c>
+      <c r="R6" s="48">
+        <v>338</v>
+      </c>
+      <c r="S6" s="48">
+        <v>186</v>
+      </c>
+      <c r="T6" s="48">
+        <v>112</v>
+      </c>
+      <c r="U6" s="48">
+        <v>49</v>
+      </c>
+      <c r="V6" s="48">
+        <v>29</v>
+      </c>
+      <c r="W6" s="48">
+        <v>19</v>
+      </c>
+      <c r="X6" s="48">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="52">
+        <f t="shared" ref="Y6:Y12" ca="1" si="5">SUMPRODUCT(OFFSET($D$18:$L$26,0,K$17-1,9-J$17,1),OFFSET($B$18:$B$26,0,0,9-J$17))/SUM(OFFSET($B$18:$B$26,0,0,9-J$17))*$B20/10000</f>
+        <v>1.895546481815592</v>
+      </c>
+      <c r="Z6" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92915658164215242</v>
+      </c>
+      <c r="AA6" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>976.82470306345772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
@@ -15861,11 +16223,11 @@
         <v>24</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" ref="J7:J13" si="3">SUMPRODUCT(J$18:J$20,$B$18:$B$20)/SUM($B$18:$B$20)*$B21/10000</f>
+        <f t="shared" ref="J7:J13" si="6">SUMPRODUCT(J$18:J$20,$B$18:$B$20)/SUM($B$18:$B$20)*$B21/10000</f>
         <v>9.2690461617756004</v>
       </c>
       <c r="K7" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0239293514386101</v>
       </c>
       <c r="L7" s="17">
@@ -15876,8 +16238,51 @@
         <f t="shared" si="1"/>
         <v>1108.2850626478262</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="50">
+        <v>2013</v>
+      </c>
+      <c r="P7" s="48">
+        <v>10657</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>275</v>
+      </c>
+      <c r="R7" s="48">
+        <v>365</v>
+      </c>
+      <c r="S7" s="48">
+        <v>201</v>
+      </c>
+      <c r="T7" s="48">
+        <v>124</v>
+      </c>
+      <c r="U7" s="48">
+        <v>76</v>
+      </c>
+      <c r="V7" s="48">
+        <v>31</v>
+      </c>
+      <c r="W7" s="48">
+        <v>24</v>
+      </c>
+      <c r="X7" s="52">
+        <f t="shared" ref="X7:X12" ca="1" si="7">SUMPRODUCT(OFFSET($D$18:$L$26,0,J$17-1,9-I$17,1),OFFSET($B$18:$B$26,0,0,9-I$17))/SUM(OFFSET($B$18:$B$26,0,0,9-I$17))*$B21/10000</f>
+        <v>9.2690461617756004</v>
+      </c>
+      <c r="Y7" s="52">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0239293514386101</v>
+      </c>
+      <c r="Z7" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99208713461180409</v>
+      </c>
+      <c r="AA7" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1108.2850626478262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2014</v>
       </c>
@@ -15903,15 +16308,15 @@
         <v>28</v>
       </c>
       <c r="I8" s="17">
-        <f t="shared" ref="I8:I13" si="4">SUMPRODUCT(I$18:I$21,$B$18:$B$21)/SUM($B$18:$B$21)*$B22/10000</f>
+        <f t="shared" ref="I8:I13" si="8">SUMPRODUCT(I$18:I$21,$B$18:$B$21)/SUM($B$18:$B$21)*$B22/10000</f>
         <v>20.232494004796163</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.8411236027445792</v>
       </c>
       <c r="K8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9304909315354668</v>
       </c>
       <c r="L8" s="17">
@@ -15922,8 +16327,52 @@
         <f t="shared" si="1"/>
         <v>1002.9503941469704</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" s="50">
+        <v>2014</v>
+      </c>
+      <c r="P8" s="48">
+        <v>10165</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>244</v>
+      </c>
+      <c r="R8" s="48">
+        <v>343</v>
+      </c>
+      <c r="S8" s="48">
+        <v>214</v>
+      </c>
+      <c r="T8" s="48">
+        <v>99</v>
+      </c>
+      <c r="U8" s="48">
+        <v>43</v>
+      </c>
+      <c r="V8" s="48">
+        <v>28</v>
+      </c>
+      <c r="W8" s="52">
+        <f t="shared" ref="W8:W12" ca="1" si="9">SUMPRODUCT(OFFSET($D$18:$L$26,0,I$17-1,9-H$17,1),OFFSET($B$18:$B$26,0,0,9-H$17))/SUM(OFFSET($B$18:$B$26,0,0,9-H$17))*$B22/10000</f>
+        <v>20.232494004796163</v>
+      </c>
+      <c r="X8" s="52">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.8411236027445792</v>
+      </c>
+      <c r="Y8" s="52">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9304909315354668</v>
+      </c>
+      <c r="Z8" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94628560789424687</v>
+      </c>
+      <c r="AA8" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1002.9503941469704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2015</v>
       </c>
@@ -15950,15 +16399,15 @@
         <v>29.768977152222117</v>
       </c>
       <c r="I9" s="17">
+        <f t="shared" si="8"/>
+        <v>21.341151079136694</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="6"/>
+        <v>9.3255806462004305</v>
+      </c>
+      <c r="K9" s="17">
         <f t="shared" si="4"/>
-        <v>21.341151079136694</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>9.3255806462004305</v>
-      </c>
-      <c r="K9" s="17">
-        <f t="shared" si="2"/>
         <v>2.0362738581331308</v>
       </c>
       <c r="L9" s="17">
@@ -15969,8 +16418,53 @@
         <f t="shared" si="1"/>
         <v>1042.4701208850129</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="50">
+        <v>2015</v>
+      </c>
+      <c r="P9" s="48">
+        <v>10722</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>271</v>
+      </c>
+      <c r="R9" s="48">
+        <v>348</v>
+      </c>
+      <c r="S9" s="48">
+        <v>193</v>
+      </c>
+      <c r="T9" s="48">
+        <v>102</v>
+      </c>
+      <c r="U9" s="48">
+        <v>65</v>
+      </c>
+      <c r="V9" s="52">
+        <f t="shared" ref="V9:V12" ca="1" si="10">SUMPRODUCT(OFFSET($D$18:$L$26,0,H$17-1,9-G$17,1),OFFSET($B$18:$B$26,0,0,9-G$17))/SUM(OFFSET($B$18:$B$26,0,0,9-G$17))*$B23/10000</f>
+        <v>29.768977152222117</v>
+      </c>
+      <c r="W9" s="52">
+        <f t="shared" ca="1" si="9"/>
+        <v>21.341151079136694</v>
+      </c>
+      <c r="X9" s="52">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.3255806462004305</v>
+      </c>
+      <c r="Y9" s="52">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0362738581331308</v>
+      </c>
+      <c r="Z9" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99813814932042455</v>
+      </c>
+      <c r="AA9" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1042.4701208850129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2016</v>
       </c>
@@ -15998,15 +16492,15 @@
         <v>28.783341367010511</v>
       </c>
       <c r="I10" s="17">
+        <f t="shared" si="8"/>
+        <v>20.634556354916068</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="6"/>
+        <v>9.0168153851109754</v>
+      </c>
+      <c r="K10" s="17">
         <f t="shared" si="4"/>
-        <v>20.634556354916068</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>9.0168153851109754</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="shared" si="2"/>
         <v>1.9688538600322856</v>
       </c>
       <c r="L10" s="17">
@@ -16017,8 +16511,54 @@
         <f t="shared" si="1"/>
         <v>1040.8339296077293</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="50">
+        <v>2016</v>
+      </c>
+      <c r="P10" s="48">
+        <v>10367</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>286</v>
+      </c>
+      <c r="R10" s="48">
+        <v>350</v>
+      </c>
+      <c r="S10" s="48">
+        <v>186</v>
+      </c>
+      <c r="T10" s="48">
+        <v>98</v>
+      </c>
+      <c r="U10" s="52">
+        <f t="shared" ref="U10:U12" ca="1" si="11">SUMPRODUCT(OFFSET($D$18:$L$26,0,G$17-1,9-F$17,1),OFFSET($B$18:$B$26,0,0,9-F$17))/SUM(OFFSET($B$18:$B$26,0,0,9-F$17))*$B24/10000</f>
+        <v>59.465272340901464</v>
+      </c>
+      <c r="V10" s="52">
+        <f t="shared" ca="1" si="10"/>
+        <v>28.783341367010511</v>
+      </c>
+      <c r="W10" s="52">
+        <f t="shared" ca="1" si="9"/>
+        <v>20.634556354916068</v>
+      </c>
+      <c r="X10" s="52">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.0168153851109754</v>
+      </c>
+      <c r="Y10" s="52">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9688538600322856</v>
+      </c>
+      <c r="Z10" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96509029975795946</v>
+      </c>
+      <c r="AA10" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1040.8339296077293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2017</v>
       </c>
@@ -16047,15 +16587,15 @@
         <v>27.181336161187698</v>
       </c>
       <c r="I11" s="17">
+        <f t="shared" si="8"/>
+        <v>19.486091127098323</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="6"/>
+        <v>8.5149631156782526</v>
+      </c>
+      <c r="K11" s="17">
         <f t="shared" si="4"/>
-        <v>19.486091127098323</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="3"/>
-        <v>8.5149631156782526</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="shared" si="2"/>
         <v>1.8592726236824615</v>
       </c>
       <c r="L11" s="17">
@@ -16066,8 +16606,55 @@
         <f t="shared" si="1"/>
         <v>919.84790419285855</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="50">
+        <v>2017</v>
+      </c>
+      <c r="P11" s="48">
+        <v>9790</v>
+      </c>
+      <c r="Q11" s="48">
+        <v>236</v>
+      </c>
+      <c r="R11" s="48">
+        <v>290</v>
+      </c>
+      <c r="S11" s="48">
+        <v>186</v>
+      </c>
+      <c r="T11" s="52">
+        <f t="shared" ref="T11:T12" ca="1" si="12">SUMPRODUCT(OFFSET($D$18:$L$26,0,F$17-1,9-E$17,1),OFFSET($B$18:$B$26,0,0,9-E$17))/SUM(OFFSET($B$18:$B$26,0,0,9-E$17))*$B25/10000</f>
+        <v>101.71916550154891</v>
+      </c>
+      <c r="U11" s="52">
+        <f t="shared" ca="1" si="11"/>
+        <v>56.155591416747882</v>
+      </c>
+      <c r="V11" s="52">
+        <f t="shared" ca="1" si="10"/>
+        <v>27.181336161187698</v>
+      </c>
+      <c r="W11" s="52">
+        <f t="shared" ca="1" si="9"/>
+        <v>19.486091127098323</v>
+      </c>
+      <c r="X11" s="52">
+        <f t="shared" ca="1" si="7"/>
+        <v>8.5149631156782526</v>
+      </c>
+      <c r="Y11" s="52">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.8592726236824615</v>
+      </c>
+      <c r="Z11" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91137590765220633</v>
+      </c>
+      <c r="AA11" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>927.82779585359572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2018</v>
       </c>
@@ -16097,15 +16684,15 @@
         <v>29.671801793116746</v>
       </c>
       <c r="I12" s="17">
+        <f t="shared" si="8"/>
+        <v>21.271486810551561</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="6"/>
+        <v>9.2951390007409067</v>
+      </c>
+      <c r="K12" s="17">
         <f t="shared" si="4"/>
-        <v>21.271486810551561</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="3"/>
-        <v>9.2951390007409067</v>
-      </c>
-      <c r="K12" s="17">
-        <f t="shared" si="2"/>
         <v>2.0296268160668505</v>
       </c>
       <c r="L12" s="17">
@@ -16116,8 +16703,56 @@
         <f t="shared" si="1"/>
         <v>1050.7676080441868</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="50">
+        <v>2018</v>
+      </c>
+      <c r="P12" s="48">
+        <v>10687</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>275</v>
+      </c>
+      <c r="R12" s="48">
+        <v>354</v>
+      </c>
+      <c r="S12" s="52">
+        <f t="shared" ref="S12:Z13" ca="1" si="13">SUMPRODUCT(OFFSET($D$18:$L$26,0,E$17-1,9-D$17,1),OFFSET($B$18:$B$26,0,0,9-D$17))/SUM(OFFSET($B$18:$B$26,0,0,9-D$17))*$B26/10000</f>
+        <v>201.09807357633181</v>
+      </c>
+      <c r="T12" s="52">
+        <f t="shared" ca="1" si="12"/>
+        <v>111.03909312717603</v>
+      </c>
+      <c r="U12" s="52">
+        <f t="shared" ca="1" si="11"/>
+        <v>61.300797290172078</v>
+      </c>
+      <c r="V12" s="52">
+        <f t="shared" ca="1" si="10"/>
+        <v>29.671801793116746</v>
+      </c>
+      <c r="W12" s="52">
+        <f t="shared" ca="1" si="9"/>
+        <v>21.271486810551561</v>
+      </c>
+      <c r="X12" s="52">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.2951390007409067</v>
+      </c>
+      <c r="Y12" s="52">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0296268160668505</v>
+      </c>
+      <c r="Z12" s="52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99487991063116732</v>
+      </c>
+      <c r="AA12" s="52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1065.7008983247872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
@@ -16148,15 +16783,15 @@
         <v>25.793116745396702</v>
       </c>
       <c r="I13" s="17">
+        <f t="shared" si="8"/>
+        <v>18.490887290167866</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="6"/>
+        <v>8.0800824662564814</v>
+      </c>
+      <c r="K13" s="17">
         <f t="shared" si="4"/>
-        <v>18.490887290167866</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="3"/>
-        <v>8.0800824662564814</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="2"/>
         <v>1.7643148798784543</v>
       </c>
       <c r="L13" s="17">
@@ -16167,19 +16802,68 @@
         <f t="shared" si="1"/>
         <v>910.2734627033351</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="50">
+        <v>2019</v>
+      </c>
+      <c r="P13" s="48">
+        <v>9290</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>242</v>
+      </c>
+      <c r="R13" s="52">
+        <f ca="1">SUMPRODUCT(OFFSET($D$18:$L$26,0,D$17-1,9-C$17,1),OFFSET($B$18:$B$26,0,0,9-C$17))/SUM(OFFSET($B$18:$B$26,0,0,9-C$17))*$B27/10000</f>
+        <v>306.24953174000063</v>
+      </c>
+      <c r="S13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>174.81062070965871</v>
+      </c>
+      <c r="T13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>96.524111083696567</v>
+      </c>
+      <c r="U13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>53.287583683512544</v>
+      </c>
+      <c r="V13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>25.793116745396702</v>
+      </c>
+      <c r="W13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>18.490887290167866</v>
+      </c>
+      <c r="X13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.0800824662564814</v>
+      </c>
+      <c r="Y13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7643148798784543</v>
+      </c>
+      <c r="Z13" s="52">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.86482964066281898</v>
+      </c>
+      <c r="AA13" s="52">
+        <f ca="1">SUM(Q13:Z13)</f>
+        <v>927.8650782392308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -16224,39 +16908,39 @@
         <v>270.89927387823496</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" ref="D18:L19" si="5">D4/$B18*10000</f>
+        <f t="shared" ref="D18:L19" si="14">D4/$B18*10000</f>
         <v>332.34034630422639</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>175.01396388009681</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>107.05641407559114</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>72.612176503444431</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>24.204058834481476</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>22.342208154905975</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>7.4474027183019924</v>
       </c>
       <c r="K18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.8618506795754981</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.93092533978774905</v>
       </c>
     </row>
@@ -16268,39 +16952,39 @@
         <v>10320</v>
       </c>
       <c r="C19" s="16">
-        <f t="shared" ref="C19:J27" si="6">C5/$B19*10000</f>
+        <f t="shared" ref="C19:J27" si="15">C5/$B19*10000</f>
         <v>272.28682170542635</v>
       </c>
       <c r="D19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>324.61240310077523</v>
       </c>
       <c r="E19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>196.70542635658913</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>104.65116279069767</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>46.511627906976742</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>29.069767441860463</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>15.503875968992247</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.7519379844961236</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.9379844961240309</v>
       </c>
     </row>
@@ -16312,35 +16996,35 @@
         <v>9981</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>230.43783188057307</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>338.64342250275519</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>186.35407273820258</v>
       </c>
       <c r="F20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>112.21320508967037</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>49.093277226730791</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>29.055204889289652</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>19.03616872056908</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>11.020939785592626</v>
       </c>
     </row>
@@ -16352,31 +17036,31 @@
         <v>10657</v>
       </c>
       <c r="C21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>258.04635450877362</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>342.49788871164492</v>
       </c>
       <c r="E21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>188.60842638641267</v>
       </c>
       <c r="F21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>116.35544712395608</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>71.314628882424699</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>29.088861780989021</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>22.520409120765695</v>
       </c>
     </row>
@@ -16388,27 +17072,27 @@
         <v>10165</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>240.03935071323167</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>337.43236596163302</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>210.52631578947367</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>97.393015248401369</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>42.302016724053125</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>27.545499262174129</v>
       </c>
     </row>
@@ -16420,23 +17104,23 @@
         <v>10722</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>252.75135235963441</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>324.56631225517623</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>180.0037306472673</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>95.131505316172365</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>60.623018093639246</v>
       </c>
     </row>
@@ -16448,19 +17132,19 @@
         <v>10367</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>275.87537378219349</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>337.60972316002704</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>179.41545287932865</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>94.530722484807569</v>
       </c>
     </row>
@@ -16472,15 +17156,15 @@
         <v>9790</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>241.06230847803883</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>296.220633299285</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>189.98978549540348</v>
       </c>
     </row>
@@ -16492,11 +17176,11 @@
         <v>10687</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>257.32197997567141</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>331.24356695050062</v>
       </c>
     </row>
@@ -16508,13 +17192,13 @@
         <v>9290</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>260.49515608180843</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -16523,7 +17207,7 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
@@ -16916,7 +17600,7 @@
     </row>
     <row r="42" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19">
@@ -16963,34 +17647,34 @@
     <row r="43" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="20"/>
       <c r="G50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -17016,7 +17700,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f t="shared" ref="A54:A62" si="7">A33</f>
+        <f t="shared" ref="A54:A62" si="16">A33</f>
         <v>2011</v>
       </c>
       <c r="B54" s="22">
@@ -17037,7 +17721,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2012</v>
       </c>
       <c r="B55" s="22">
@@ -17059,7 +17743,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2013</v>
       </c>
       <c r="B56" s="22">
@@ -17067,7 +17751,7 @@
         <v>260.90450305126689</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:D62" si="8">D55+1</f>
+        <f t="shared" ref="D56:D62" si="17">D55+1</f>
         <v>3</v>
       </c>
       <c r="E56" s="23">
@@ -17081,7 +17765,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2014</v>
       </c>
       <c r="B57" s="22">
@@ -17089,7 +17773,7 @@
         <v>261.05560218292203</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="E57" s="23">
@@ -17103,7 +17787,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2015</v>
       </c>
       <c r="B58" s="22">
@@ -17111,7 +17795,7 @@
         <v>267.53342643369166</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="E58" s="23">
@@ -17125,7 +17809,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2016</v>
       </c>
       <c r="B59" s="22">
@@ -17133,7 +17817,7 @@
         <v>289.57748058028761</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="E59" s="23">
@@ -17147,7 +17831,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2017</v>
       </c>
       <c r="B60" s="22">
@@ -17155,7 +17839,7 @@
         <v>280.65181770043461</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="E60" s="23">
@@ -17169,7 +17853,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2018</v>
       </c>
       <c r="B61" s="22">
@@ -17177,7 +17861,7 @@
         <v>272.89232090431403</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="E61" s="23">
@@ -17191,7 +17875,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2019</v>
       </c>
       <c r="B62" s="25">
@@ -17199,7 +17883,7 @@
         <v>313.06854906740534</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="E62" s="23">
@@ -17220,19 +17904,19 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="26">
         <f>(B62/B53)^(1/10)-1</f>
         <v>2.3942502164716828E-2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -17276,10 +17960,10 @@
         <v>9</v>
       </c>
       <c r="M70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>18</v>
@@ -17350,7 +18034,7 @@
         <v>2011</v>
       </c>
       <c r="B72" s="22">
-        <f t="shared" ref="B72:B80" si="9">B54</f>
+        <f t="shared" ref="B72:B80" si="18">B54</f>
         <v>247.78952008973249</v>
       </c>
       <c r="C72" s="3">
@@ -17402,7 +18086,7 @@
         <v>349.96083083799948</v>
       </c>
       <c r="O72" s="13">
-        <f t="shared" ref="O72:O80" si="10">M72+N72</f>
+        <f t="shared" ref="O72:O80" si="19">M72+N72</f>
         <v>267587.96083083801</v>
       </c>
     </row>
@@ -17411,7 +18095,7 @@
         <v>2012</v>
       </c>
       <c r="B73" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>234.5357155047318</v>
       </c>
       <c r="C73" s="3">
@@ -17463,7 +18147,7 @@
         <v>1068.1909108732384</v>
       </c>
       <c r="O73" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>251881.19091087324</v>
       </c>
     </row>
@@ -17472,7 +18156,7 @@
         <v>2013</v>
       </c>
       <c r="B74" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>260.90450305126689</v>
       </c>
       <c r="C74" s="3">
@@ -17508,11 +18192,11 @@
         <v>2929.5304302577829</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" ref="K74:L74" si="11">E$84*K$82*$M7</f>
+        <f t="shared" ref="K74:L74" si="20">E$84*K$82*$M7</f>
         <v>846.90745655497392</v>
       </c>
       <c r="L74" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>394.05686193549332</v>
       </c>
       <c r="M74" s="3">
@@ -17524,7 +18208,7 @@
         <v>4170.4947487482505</v>
       </c>
       <c r="O74" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>287443.49474874826</v>
       </c>
     </row>
@@ -17533,7 +18217,7 @@
         <v>2014</v>
       </c>
       <c r="B75" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>261.05560218292203</v>
       </c>
       <c r="C75" s="3">
@@ -17565,15 +18249,15 @@
         <v>6355.9408785776577</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:L75" si="12">E$84*J$82*$M8</f>
+        <f t="shared" ref="J75:L75" si="21">E$84*J$82*$M8</f>
         <v>2714.5732007522256</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>784.76477367707821</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>365.14254500796653</v>
       </c>
       <c r="M75" s="3">
@@ -17585,7 +18269,7 @@
         <v>10220.421398014927</v>
       </c>
       <c r="O75" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>274725.42139801494</v>
       </c>
     </row>
@@ -17594,7 +18278,7 @@
         <v>2015</v>
       </c>
       <c r="B76" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>267.53342643369166</v>
       </c>
       <c r="C76" s="3">
@@ -17622,19 +18306,19 @@
         <v>8952.1676080678535</v>
       </c>
       <c r="I76" s="13">
-        <f t="shared" ref="I76:L76" si="13">E$84*I$82*$M9</f>
+        <f t="shared" ref="I76:L76" si="22">E$84*I$82*$M9</f>
         <v>6764.56044575947</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>2889.0914581692059</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>835.21682291502225</v>
       </c>
       <c r="L76" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>388.61733678957449</v>
       </c>
       <c r="M76" s="3">
@@ -17646,7 +18330,7 @@
         <v>19829.653671701126</v>
       </c>
       <c r="O76" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>289702.65367170115</v>
       </c>
     </row>
@@ -17655,7 +18339,7 @@
         <v>2016</v>
       </c>
       <c r="B77" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>289.57748058028761</v>
       </c>
       <c r="C77" s="3">
@@ -17679,23 +18363,23 @@
         <v>18120.151154479918</v>
       </c>
       <c r="H77" s="13">
-        <f t="shared" ref="H77:L77" si="14">E$84*H$82*$M10</f>
+        <f t="shared" ref="H77:L77" si="23">E$84*H$82*$M10</f>
         <v>9152.1177682820708</v>
       </c>
       <c r="I77" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6915.6495455311715</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2953.6204443572938</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>853.87171688784758</v>
       </c>
       <c r="L77" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>397.2972567994579</v>
       </c>
       <c r="M77" s="3">
@@ -17707,7 +18391,7 @@
         <v>38392.707886337761</v>
       </c>
       <c r="O77" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>301806.70788633777</v>
       </c>
     </row>
@@ -17716,7 +18400,7 @@
         <v>2017</v>
       </c>
       <c r="B78" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>280.65181770043461</v>
       </c>
       <c r="C78" s="3">
@@ -17736,27 +18420,27 @@
         <v>29748.8820594629</v>
       </c>
       <c r="G78" s="13">
-        <f t="shared" ref="G78:L78" si="15">E$84*G$82*$M11</f>
+        <f t="shared" ref="G78:L78" si="24">E$84*G$82*$M11</f>
         <v>16397.285877880426</v>
       </c>
       <c r="H78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>8281.9337518300872</v>
       </c>
       <c r="I78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>6258.1090887463515</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>2672.7899998176827</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>772.68553255887434</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v>359.52220501360182</v>
       </c>
       <c r="M78" s="3">
@@ -17768,7 +18452,7 @@
         <v>64491.208515309925</v>
       </c>
       <c r="O78" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>269312.2085153099</v>
       </c>
     </row>
@@ -17777,7 +18461,7 @@
         <v>2018</v>
       </c>
       <c r="B79" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>272.89232090431403</v>
       </c>
       <c r="C79" s="3">
@@ -17793,31 +18477,31 @@
         <v>63811.376569068314</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" ref="F79:L79" si="16">E$84*F$82*$M12</f>
+        <f t="shared" ref="F79:L79" si="25">E$84*F$82*$M12</f>
         <v>34796.605007232814</v>
       </c>
       <c r="G79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>19179.540217437778</v>
       </c>
       <c r="H79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>9687.1935181454064</v>
       </c>
       <c r="I79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>7319.9708687544544</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>3126.302955016552</v>
       </c>
       <c r="K79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>903.79306413976553</v>
       </c>
       <c r="L79" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>420.52511869797445</v>
       </c>
       <c r="M79" s="3">
@@ -17829,7 +18513,7 @@
         <v>139245.30731849305</v>
       </c>
       <c r="O79" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>329509.30731849303</v>
       </c>
     </row>
@@ -17838,7 +18522,7 @@
         <v>2019</v>
       </c>
       <c r="B80" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>313.06854906740534</v>
       </c>
       <c r="C80" s="3">
@@ -17850,35 +18534,35 @@
         <v>97730.648312396996</v>
       </c>
       <c r="E80" s="13">
-        <f t="shared" ref="E80:L80" si="17">E$84*E$82*$M13</f>
+        <f t="shared" ref="E80:L80" si="26">E$84*E$82*$M13</f>
         <v>56602.926956614101</v>
       </c>
       <c r="F80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>30865.807908574137</v>
       </c>
       <c r="G80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>17012.924220715075</v>
       </c>
       <c r="H80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>8592.8800882186624</v>
       </c>
       <c r="I80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>6493.0706511273265</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>2773.1402662268624</v>
       </c>
       <c r="K80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>801.69611664819354</v>
       </c>
       <c r="L80" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>373.02051541419144</v>
       </c>
       <c r="M80" s="3">
@@ -17890,7 +18574,7 @@
         <v>221246.11503593554</v>
       </c>
       <c r="O80" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>298535.11503593554</v>
       </c>
     </row>
@@ -17899,7 +18583,7 @@
     </row>
     <row r="82" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C82" s="10" cm="1">
         <f t="array" ref="C82:L82">TRANSPOSE(E53:E62)</f>
@@ -17940,42 +18624,42 @@
     <row r="83" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="16">
         <f>(1+B65)*B62</f>
         <v>320.56419348115645</v>
       </c>
       <c r="E84" s="16">
-        <f t="shared" ref="E84:L84" si="18">D84*(1+$B65)</f>
+        <f t="shared" ref="E84:L84" si="27">D84*(1+$B65)</f>
         <v>328.23930237750972</v>
       </c>
       <c r="F84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>336.09817258522838</v>
       </c>
       <c r="G84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>344.14520380990757</v>
       </c>
       <c r="H84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>352.38490109710318</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>360.82187735443409</v>
       </c>
       <c r="J84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>369.4608559340698</v>
       </c>
       <c r="K84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>378.30667327704941</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>387.36428162091198</v>
       </c>
     </row>
@@ -17989,11 +18673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BCF64-09FB-A244-9983-B776A3EDA933}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
@@ -18005,7 +18689,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -18494,7 +19178,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -18847,7 +19531,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -19204,6 +19888,47 @@
         <v>0.99876704201464939</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="47">
+        <f ca="1">SUM(OFFSET($B$18:$K$26,0,1+B17,9-B17,1))/SUM(OFFSET($B$18:$K$26,0,B17,9-B17,1))</f>
+        <v>0.93598550469211805</v>
+      </c>
+      <c r="C43" s="47">
+        <f t="shared" ref="C43:J43" ca="1" si="2">SUM(OFFSET($B$18:$K$26,0,1+C17,9-C17,1))/SUM(OFFSET($B$18:$K$26,0,C17,9-C17,1))</f>
+        <v>0.82049215407874254</v>
+      </c>
+      <c r="D43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85209597078331556</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90353325722233635</v>
+      </c>
+      <c r="F43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94643399879966228</v>
+      </c>
+      <c r="G43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96704728830725262</v>
+      </c>
+      <c r="H43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98390033808008648</v>
+      </c>
+      <c r="I43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99625119224811698</v>
+      </c>
+      <c r="J43" s="47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99876704201464939</v>
+      </c>
+    </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>9</v>
@@ -19213,35 +19938,35 @@
         <v>0.93598550469211805</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:J44" si="2">C42</f>
+        <f t="shared" ref="C44:J44" si="3">C42</f>
         <v>0.82049215407874254</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85209597078331556</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90353325722233635</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94643399879966228</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96704728830725262</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98390033808008648</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99625119224811698</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99876704201464939</v>
       </c>
       <c r="K44" s="1">
@@ -19306,67 +20031,67 @@
         <v>-0.12083142706370897</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" ref="D47:K47" si="3">1/D46-1/C46</f>
+        <f t="shared" ref="D47:K47" si="4">1/D46-1/C46</f>
         <v>-0.31714227504114634</v>
       </c>
       <c r="E47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.21440017701780922</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.11915472282889628</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.9781528570924669E-2</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.4806413916926404E-2</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.644495121943268E-2</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.7675594362747145E-3</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.2344800473826911E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -19400,7 +20125,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f t="shared" ref="A53:A60" si="4">A19</f>
+        <f t="shared" ref="A53:A60" si="5">A19</f>
         <v>2011</v>
       </c>
       <c r="B53" s="17">
@@ -19408,11 +20133,11 @@
         <v>260.40210814334614</v>
       </c>
       <c r="C53" s="17">
-        <f t="shared" ref="C53:C61" si="5">K5</f>
+        <f t="shared" ref="C53:C61" si="6">K5</f>
         <v>1031.960714950661</v>
       </c>
       <c r="D53" s="13">
-        <f t="shared" ref="D53:D61" si="6">B53*C53</f>
+        <f t="shared" ref="D53:D61" si="7">B53*C53</f>
         <v>268724.74569426681</v>
       </c>
       <c r="E53" s="3">
@@ -19420,13 +20145,13 @@
         <v>267238</v>
       </c>
       <c r="F53" s="28">
-        <f t="shared" ref="F53:F61" si="7">D53-E53</f>
+        <f t="shared" ref="F53:F61" si="8">D53-E53</f>
         <v>1486.7456942668068</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2012</v>
       </c>
       <c r="B54" s="17">
@@ -19434,11 +20159,11 @@
         <v>260.69598837292756</v>
       </c>
       <c r="C54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>976.82470306345772</v>
       </c>
       <c r="D54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>254654.28143221958</v>
       </c>
       <c r="E54" s="3">
@@ -19446,13 +20171,13 @@
         <v>250813</v>
       </c>
       <c r="F54" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3841.2814322195773</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2013</v>
       </c>
       <c r="B55" s="17">
@@ -19460,11 +20185,11 @@
         <v>260.6649947338762</v>
       </c>
       <c r="C55" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1108.2850626478262</v>
       </c>
       <c r="D55" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>288891.12001872924</v>
       </c>
       <c r="E55" s="3">
@@ -19472,13 +20197,13 @@
         <v>283273</v>
       </c>
       <c r="F55" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5618.1200187292416</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2014</v>
       </c>
       <c r="B56" s="17">
@@ -19486,11 +20211,11 @@
         <v>274.57580341982407</v>
       </c>
       <c r="C56" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1002.9503941469704</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275385.91026313364</v>
       </c>
       <c r="E56" s="3">
@@ -19498,13 +20223,13 @@
         <v>264505</v>
       </c>
       <c r="F56" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10880.910263133643</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2015</v>
       </c>
       <c r="B57" s="17">
@@ -19512,11 +20237,11 @@
         <v>282.55400760749586</v>
       </c>
       <c r="C57" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1042.4701208850129</v>
       </c>
       <c r="D57" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>294554.11046713107</v>
       </c>
       <c r="E57" s="3">
@@ -19524,13 +20249,13 @@
         <v>269873</v>
       </c>
       <c r="F57" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24681.110467131075</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2016</v>
       </c>
       <c r="B58" s="17">
@@ -19538,11 +20263,11 @@
         <v>286.5534247003701</v>
       </c>
       <c r="C58" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1040.8339296077293</v>
       </c>
       <c r="D58" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>298254.52707343874</v>
       </c>
       <c r="E58" s="3">
@@ -19550,13 +20275,13 @@
         <v>263414</v>
       </c>
       <c r="F58" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34840.527073438745</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2017</v>
       </c>
       <c r="B59" s="17">
@@ -19564,11 +20289,11 @@
         <v>298.99682167385384</v>
       </c>
       <c r="C59" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>919.84790419285855</v>
       </c>
       <c r="D59" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>275031.59977702034</v>
       </c>
       <c r="E59" s="3">
@@ -19576,13 +20301,13 @@
         <v>204821</v>
       </c>
       <c r="F59" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70210.599777020339</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2018</v>
       </c>
       <c r="B60" s="17">
@@ -19590,11 +20315,11 @@
         <v>303.7665322300362</v>
       </c>
       <c r="C60" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1050.7676080441868</v>
       </c>
       <c r="D60" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>319188.0324752325</v>
       </c>
       <c r="E60" s="3">
@@ -19602,7 +20327,7 @@
         <v>190264</v>
       </c>
       <c r="F60" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>128924.0324752325</v>
       </c>
     </row>
@@ -19616,11 +20341,11 @@
         <v>323.16792979047881</v>
       </c>
       <c r="C61" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>910.2734627033351</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>294171.19048504741</v>
       </c>
       <c r="E61" s="3">
@@ -19628,7 +20353,7 @@
         <v>77289</v>
       </c>
       <c r="F61" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>216882.19048504741</v>
       </c>
     </row>
@@ -19747,11 +20472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FBCDE-374F-8347-AD8D-76FB3C6D7305}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
@@ -19759,20 +20484,20 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -19910,33 +20635,33 @@
         <v>18</v>
       </c>
       <c r="C14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="G14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -20264,33 +20989,33 @@
         <v>18</v>
       </c>
       <c r="C27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E28" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -20625,38 +21350,38 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B40" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E41" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
@@ -20983,7 +21708,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="39">
         <f>SUM(B42:B51)</f>
@@ -21016,38 +21741,38 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E55" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
@@ -21384,7 +22109,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="39">
         <f t="shared" si="14"/>
@@ -21417,38 +22142,38 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B68" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E69" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
@@ -21764,7 +22489,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="40">
         <f t="shared" ref="B80:H80" si="24">B52/$B52</f>
@@ -21797,12 +22522,12 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="36">
         <v>1</v>
@@ -21873,11 +22598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1824B350-CB5E-114A-9EED-30186EA1CE83}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
@@ -21885,7 +22610,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -22296,7 +23021,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -22720,38 +23445,38 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E30" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
@@ -23088,7 +23813,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="39">
         <f>AVERAGE(B31:B40)</f>
@@ -23121,38 +23846,38 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E44" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
@@ -23489,7 +24214,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="39">
         <f t="shared" si="3"/>
@@ -23522,38 +24247,38 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E58" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
@@ -23869,7 +24594,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="40">
         <f t="shared" si="5"/>
@@ -23944,11 +24669,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C87D49-A275-324D-9A44-485F76168570}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A35" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
@@ -23956,38 +24681,38 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="34"/>
       <c r="E2" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -24324,7 +25049,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="39">
         <f>SUM(B4:B13)</f>
@@ -24357,38 +25082,38 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -24725,7 +25450,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="39">
         <f t="shared" si="2"/>
@@ -24758,38 +25483,38 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="34" t="s">
-        <v>67</v>
-      </c>
       <c r="E31" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
@@ -25105,7 +25830,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="40">
         <f t="shared" si="4"/>

--- a/static/output/Excel/LRamounts-sol-2.xlsx
+++ b/static/output/Excel/LRamounts-sol-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/b_avanzi_unimelb_edu_au/Documents/Documents/Teaching 20 onwards/2024/24 20004 90021/PG tutorials/wk6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD25CB4-CF4E-7147-96AA-EC016799BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EDD25CB4-CF4E-7147-96AA-EC016799BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06003E09-5F2A-4D47-AA38-8A6E5927D13B}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
+    <workbookView xWindow="5040" yWindow="760" windowWidth="29400" windowHeight="20820" firstSheet="2" activeTab="7" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="WPI" sheetId="3" r:id="rId1"/>
@@ -820,34 +820,34 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>247.1062546895883</c:v>
+                  <c:v>247.87511978679794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>247.78952008973249</c:v>
+                  <c:v>248.21766630395049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234.5357155047318</c:v>
+                  <c:v>234.77374318911194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260.90450305126689</c:v>
+                  <c:v>261.05128386099295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261.05560218292203</c:v>
+                  <c:v>261.1411686350865</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>267.53342643369166</c:v>
+                  <c:v>267.58750547167944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>289.57748058028761</c:v>
+                  <c:v>289.60448857239396</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280.65181770043461</c:v>
+                  <c:v>280.04846891609856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>272.89232090431403</c:v>
+                  <c:v>271.04521382122567</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
-                  <c:v>313.06854906740534</c:v>
+                  <c:v>309.46576015631786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,34 +935,34 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>247.1062546895883</c:v>
+                  <c:v>247.87511978679794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256.40488877318364</c:v>
+                  <c:v>257.20268634402731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265.98812797151703</c:v>
+                  <c:v>266.81574355788223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.4839505360431</c:v>
+                  <c:v>274.33488919187886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280.67458902515909</c:v>
+                  <c:v>281.54790117764259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>287.21946733426591</c:v>
+                  <c:v>288.11314371631403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293.26896160962127</c:v>
+                  <c:v>294.18146084587011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>299.29879072682849</c:v>
+                  <c:v>300.23005162961698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>305.87364477335865</c:v>
+                  <c:v>306.82536317448921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>313.04956605836412</c:v>
+                  <c:v>314.02361216392001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,31 +1926,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99646217976911278</c:v>
+                  <c:v>0.99646026788631437</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99129527736251388</c:v>
+                  <c:v>0.99128077183337349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99761045197599796</c:v>
+                  <c:v>0.99752813556932307</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99852587094153311</c:v>
+                  <c:v>0.99824561900400077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99028407141363262</c:v>
+                  <c:v>0.98968012099477864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0128931514987927</c:v>
+                  <c:v>1.011610455031223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98244666105598166</c:v>
+                  <c:v>0.98193052451995699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0505603595030559</c:v>
+                  <c:v>1.0514635207830605</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95716544040762286</c:v>
+                  <c:v>0.96109970262227851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,13 +2065,13 @@
                   <c:v>1.0009716814841969</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0033109095774917</c:v>
+                  <c:v>1.0120148619634999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0176534826135817</c:v>
+                  <c:v>1.032116161844072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94317379401736934</c:v>
+                  <c:v>0.96140122945046536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,10 +2575,10 @@
                   <c:v>0.99719794997935396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9839632747014958</c:v>
+                  <c:v>0.97550058327820399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0150768875049867</c:v>
+                  <c:v>1.0008529736075054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,10 +2678,10 @@
                   <c:v>0.9995960328787058</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98862660046101869</c:v>
+                  <c:v>0.98012380155818579</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0241427235369813</c:v>
+                  <c:v>1.0097917732812547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,10 +2781,10 @@
                   <c:v>0.98924875794304823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0106227353506045</c:v>
+                  <c:v>1.0019307561126294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0020824812627058</c:v>
+                  <c:v>0.98804065339024816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,10 +2884,10 @@
                   <c:v>0.98781977209422289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0074333647009563</c:v>
+                  <c:v>0.99876881601891387</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99709482122432291</c:v>
+                  <c:v>0.98312288367033185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,28 +2969,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.99939691610289738</c:v>
+                  <c:v>0.99939499858930625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99959168225360107</c:v>
+                  <c:v>0.99957705532396024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0018545503054506</c:v>
+                  <c:v>1.0017718837030418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99957084645044958</c:v>
+                  <c:v>0.99929030122416074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.005036524851334</c:v>
+                  <c:v>1.0044235772662222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0013768990842455</c:v>
+                  <c:v>1.0001087864415048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99756185478452586</c:v>
+                  <c:v>0.98846263714043225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0197988199195189</c:v>
+                  <c:v>1.0063731698871707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3999,28 +3999,28 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.22318930538137721</c:v>
+                  <c:v>0.2228618735045122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24415792248531162</c:v>
+                  <c:v>0.24331546456168632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48817684054175942</c:v>
+                  <c:v>0.485400533519868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59747582123318876</c:v>
+                  <c:v>0.59296828026363535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51048149495948325</c:v>
+                  <c:v>0.50593309296994549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6170675348988679</c:v>
+                  <c:v>0.61092463970841859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62144627385243145</c:v>
+                  <c:v>0.62008290070448557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94529209877866893</c:v>
+                  <c:v>0.94721517920170295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4126,10 +4126,10 @@
                   <c:v>0.55997504055801772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6765591252025549</c:v>
+                  <c:v>0.69955058993295594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87522424696703749</c:v>
+                  <c:v>0.90601929532500836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7826,7 +7826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF0E41B-5E9B-7C42-9B87-62A3DF143077}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -15829,8 +15829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FB8843-27E5-2D45-B2ED-6644A70E32A0}">
   <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16579,8 +16579,8 @@
         <v>101.71916550154891</v>
       </c>
       <c r="G11" s="17">
-        <f>SUMPRODUCT(G$18:G24,$B$18:$B24)/SUM($B$18:$B24)*$B25/10000</f>
-        <v>48.175699756010637</v>
+        <f ca="1">U11</f>
+        <v>56.155591416747882</v>
       </c>
       <c r="H11" s="17">
         <f>SUMPRODUCT(H$18:H$22,$B$18:$B$22)/SUM($B$18:$B$22)*$B25/10000</f>
@@ -16603,8 +16603,8 @@
         <v>0.91137590765220633</v>
       </c>
       <c r="M11" s="17">
-        <f t="shared" si="1"/>
-        <v>919.84790419285855</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>927.82779585359572</v>
       </c>
       <c r="O11" s="50">
         <v>2017</v>
@@ -16676,8 +16676,8 @@
         <v>111.03909312717603</v>
       </c>
       <c r="G12" s="17">
-        <f>SUMPRODUCT(G$18:G25,$B$18:$B25)/SUM($B$18:$B25)*$B26/10000</f>
-        <v>46.367507009571689</v>
+        <f t="shared" ref="G12:G13" ca="1" si="13">U12</f>
+        <v>61.300797290172078</v>
       </c>
       <c r="H12" s="17">
         <f>SUMPRODUCT(H$18:H$22,$B$18:$B$22)/SUM($B$18:$B$22)*$B26/10000</f>
@@ -16700,8 +16700,8 @@
         <v>0.99487991063116732</v>
       </c>
       <c r="M12" s="17">
-        <f t="shared" si="1"/>
-        <v>1050.7676080441868</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1065.7008983247872</v>
       </c>
       <c r="O12" s="50">
         <v>2018</v>
@@ -16716,7 +16716,7 @@
         <v>354</v>
       </c>
       <c r="S12" s="52">
-        <f t="shared" ref="S12:Z13" ca="1" si="13">SUMPRODUCT(OFFSET($D$18:$L$26,0,E$17-1,9-D$17,1),OFFSET($B$18:$B$26,0,0,9-D$17))/SUM(OFFSET($B$18:$B$26,0,0,9-D$17))*$B26/10000</f>
+        <f t="shared" ref="S12:Z13" ca="1" si="14">SUMPRODUCT(OFFSET($D$18:$L$26,0,E$17-1,9-D$17,1),OFFSET($B$18:$B$26,0,0,9-D$17))/SUM(OFFSET($B$18:$B$26,0,0,9-D$17))*$B26/10000</f>
         <v>201.09807357633181</v>
       </c>
       <c r="T12" s="52">
@@ -16775,8 +16775,8 @@
         <v>96.524111083696567</v>
       </c>
       <c r="G13" s="17">
-        <f>SUMPRODUCT(G$18:G26,$B$18:$B26)/SUM($B$18:$B26)*$B27/10000</f>
-        <v>35.695968147616952</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>53.287583683512544</v>
       </c>
       <c r="H13" s="17">
         <f>SUMPRODUCT(H$18:H$22,$B$18:$B$22)/SUM($B$18:$B$22)*$B27/10000</f>
@@ -16799,8 +16799,8 @@
         <v>0.86482964066281898</v>
       </c>
       <c r="M13" s="17">
-        <f t="shared" si="1"/>
-        <v>910.2734627033351</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>927.8650782392308</v>
       </c>
       <c r="O13" s="50">
         <v>2019</v>
@@ -16816,35 +16816,35 @@
         <v>306.24953174000063</v>
       </c>
       <c r="S13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>174.81062070965871</v>
       </c>
       <c r="T13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>96.524111083696567</v>
       </c>
       <c r="U13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>53.287583683512544</v>
       </c>
       <c r="V13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>25.793116745396702</v>
       </c>
       <c r="W13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>18.490887290167866</v>
       </c>
       <c r="X13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>8.0800824662564814</v>
       </c>
       <c r="Y13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1.7643148798784543</v>
       </c>
       <c r="Z13" s="52">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0.86482964066281898</v>
       </c>
       <c r="AA13" s="52">
@@ -16908,39 +16908,39 @@
         <v>270.89927387823496</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" ref="D18:L19" si="14">D4/$B18*10000</f>
+        <f t="shared" ref="D18:L19" si="15">D4/$B18*10000</f>
         <v>332.34034630422639</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>175.01396388009681</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>107.05641407559114</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>72.612176503444431</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.204058834481476</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22.342208154905975</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.4474027183019924</v>
       </c>
       <c r="K18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8618506795754981</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93092533978774905</v>
       </c>
     </row>
@@ -16952,39 +16952,39 @@
         <v>10320</v>
       </c>
       <c r="C19" s="16">
-        <f t="shared" ref="C19:J27" si="15">C5/$B19*10000</f>
+        <f t="shared" ref="C19:J27" si="16">C5/$B19*10000</f>
         <v>272.28682170542635</v>
       </c>
       <c r="D19" s="16">
+        <f t="shared" si="16"/>
+        <v>324.61240310077523</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="16"/>
+        <v>196.70542635658913</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="16"/>
+        <v>104.65116279069767</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" si="16"/>
+        <v>46.511627906976742</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="16"/>
+        <v>29.069767441860463</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="16"/>
+        <v>15.503875968992247</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="16"/>
+        <v>7.7519379844961236</v>
+      </c>
+      <c r="K19" s="16">
         <f t="shared" si="15"/>
-        <v>324.61240310077523</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="15"/>
-        <v>196.70542635658913</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="15"/>
-        <v>104.65116279069767</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="15"/>
-        <v>46.511627906976742</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="15"/>
-        <v>29.069767441860463</v>
-      </c>
-      <c r="I19" s="16">
-        <f t="shared" si="15"/>
-        <v>15.503875968992247</v>
-      </c>
-      <c r="J19" s="16">
-        <f t="shared" si="15"/>
-        <v>7.7519379844961236</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="14"/>
         <v>1.9379844961240309</v>
       </c>
     </row>
@@ -16996,35 +16996,35 @@
         <v>9981</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>230.43783188057307</v>
       </c>
       <c r="D20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>338.64342250275519</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>186.35407273820258</v>
       </c>
       <c r="F20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>112.21320508967037</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49.093277226730791</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.055204889289652</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.03616872056908</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.020939785592626</v>
       </c>
     </row>
@@ -17036,31 +17036,31 @@
         <v>10657</v>
       </c>
       <c r="C21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>258.04635450877362</v>
       </c>
       <c r="D21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>342.49788871164492</v>
       </c>
       <c r="E21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>188.60842638641267</v>
       </c>
       <c r="F21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>116.35544712395608</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.314628882424699</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.088861780989021</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.520409120765695</v>
       </c>
     </row>
@@ -17072,27 +17072,27 @@
         <v>10165</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>240.03935071323167</v>
       </c>
       <c r="D22" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>337.43236596163302</v>
       </c>
       <c r="E22" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>210.52631578947367</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>97.393015248401369</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42.302016724053125</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>27.545499262174129</v>
       </c>
     </row>
@@ -17104,23 +17104,23 @@
         <v>10722</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>252.75135235963441</v>
       </c>
       <c r="D23" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>324.56631225517623</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>180.0037306472673</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>95.131505316172365</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>60.623018093639246</v>
       </c>
     </row>
@@ -17132,19 +17132,19 @@
         <v>10367</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>275.87537378219349</v>
       </c>
       <c r="D24" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>337.60972316002704</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>179.41545287932865</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>94.530722484807569</v>
       </c>
     </row>
@@ -17156,15 +17156,15 @@
         <v>9790</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241.06230847803883</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>296.220633299285</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>189.98978549540348</v>
       </c>
     </row>
@@ -17176,11 +17176,11 @@
         <v>10687</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>257.32197997567141</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>331.24356695050062</v>
       </c>
     </row>
@@ -17192,7 +17192,7 @@
         <v>9290</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>260.49515608180843</v>
       </c>
     </row>
@@ -17525,20 +17525,20 @@
         <v>2017</v>
       </c>
       <c r="B39" s="18">
-        <f>C39+D38+E37+F36+G35+H34+I33+J32</f>
-        <v>279.70154457550029</v>
+        <f ca="1">C39+D38+E37+F36+G35+H34+I33+J32</f>
+        <v>279.0906688874187</v>
       </c>
       <c r="C39" s="2">
-        <f>'LRamounts1 - case estimates'!B11/'LRamounts4 - separation method'!$M11</f>
-        <v>71.026959676913975</v>
+        <f ca="1">'LRamounts1 - case estimates'!B11/'LRamounts4 - separation method'!$M11</f>
+        <v>70.416083988832355</v>
       </c>
       <c r="D39" s="2">
-        <f>'LRamounts1 - case estimates'!C11/'LRamounts4 - separation method'!$M11</f>
-        <v>89.253886023734012</v>
+        <f ca="1">'LRamounts1 - case estimates'!C11/'LRamounts4 - separation method'!$M11</f>
+        <v>88.486247520175354</v>
       </c>
       <c r="E39" s="2">
-        <f>'LRamounts1 - case estimates'!D11/'LRamounts4 - separation method'!$M11</f>
-        <v>62.387487907966182</v>
+        <f ca="1">'LRamounts1 - case estimates'!D11/'LRamounts4 - separation method'!$M11</f>
+        <v>61.850917009017088</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -17553,16 +17553,16 @@
         <v>2018</v>
       </c>
       <c r="B40" s="18">
-        <f>C40+D39+E38+F37+G36+H35+I34+J33+K32</f>
-        <v>272.60363034733115</v>
+        <f ca="1">C40+D39+E38+F37+G36+H35+I34+J33+K32</f>
+        <v>270.7551391278264</v>
       </c>
       <c r="C40" s="2">
-        <f>'LRamounts1 - case estimates'!B12/'LRamounts4 - separation method'!$M12</f>
-        <v>77.134086908959702</v>
+        <f ca="1">'LRamounts1 - case estimates'!B12/'LRamounts4 - separation method'!$M12</f>
+        <v>76.05323419301358</v>
       </c>
       <c r="D40" s="2">
-        <f>'LRamounts1 - case estimates'!C12/'LRamounts4 - separation method'!$M12</f>
-        <v>103.93734938525755</v>
+        <f ca="1">'LRamounts1 - case estimates'!C12/'LRamounts4 - separation method'!$M12</f>
+        <v>102.48091201919539</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -17578,16 +17578,16 @@
         <v>2019</v>
       </c>
       <c r="B41" s="18">
-        <f>C41+D40+E39+F38+G37+H36+I35+J34+K33+L32</f>
-        <v>313.06854906740534</v>
+        <f ca="1">C41+D40+E39+F38+G37+H36+I35+J34+K33+L32</f>
+        <v>309.46576015631786</v>
       </c>
       <c r="C41" s="2">
-        <f>'LRamounts1 - case estimates'!B13/'LRamounts4 - separation method'!$M13</f>
-        <v>84.907451624994877</v>
+        <f ca="1">'LRamounts1 - case estimates'!B13/'LRamounts4 - separation method'!$M13</f>
+        <v>83.297670978918589</v>
       </c>
       <c r="D41" s="13">
-        <f>D84*D82</f>
-        <v>107.36405302001883</v>
+        <f ca="1">D84*D82</f>
+        <v>105.90427829185968</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -17604,16 +17604,16 @@
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19">
-        <f>SUM(C32:C41)</f>
-        <v>701.54954790395948</v>
+        <f ca="1">SUM(C32:C41)</f>
+        <v>698.24803885385552</v>
       </c>
       <c r="D42" s="19">
-        <f>SUM(D32:D40)</f>
-        <v>813.19400415509131</v>
+        <f ca="1">SUM(D32:D40)</f>
+        <v>810.96992828547036</v>
       </c>
       <c r="E42" s="19">
-        <f>SUM(E32:E39)</f>
-        <v>413.02527525084554</v>
+        <f ca="1">SUM(E32:E39)</f>
+        <v>412.48870435189644</v>
       </c>
       <c r="F42" s="19">
         <f>SUM(F32:F38)</f>
@@ -17683,216 +17683,216 @@
         <v>2010</v>
       </c>
       <c r="B53" s="22">
-        <f>B32/(1-SUM(E54:E$62))</f>
-        <v>247.1062546895883</v>
+        <f ca="1">B32/(1-SUM(E54:E$62))</f>
+        <v>247.87511978679794</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="23">
-        <f>C42/SUM(B53:B$62)</f>
-        <v>0.26225022027943484</v>
+        <f ca="1">C42/SUM(B53:B$62)</f>
+        <v>0.26143676614461964</v>
       </c>
       <c r="G53" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B39*B$53</f>
-        <v>247.1062546895883</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B39*B$53</f>
+        <v>247.87511978679794</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f t="shared" ref="A54:A62" si="16">A33</f>
+        <f t="shared" ref="A54:A62" si="17">A33</f>
         <v>2011</v>
       </c>
       <c r="B54" s="22">
-        <f>B33/(1-SUM(E55:E$62))</f>
-        <v>247.78952008973249</v>
+        <f ca="1">B33/(1-SUM(E55:E$62))</f>
+        <v>248.21766630395049</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="23">
-        <f>D42/SUM(B54:B$62)</f>
-        <v>0.33492216287197391</v>
+        <f ca="1">D42/SUM(B54:B$62)</f>
+        <v>0.33470556504115367</v>
       </c>
       <c r="G54" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B40*B$53</f>
-        <v>256.40488877318364</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B40*B$53</f>
+        <v>257.20268634402731</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
       <c r="B55" s="22">
-        <f>B34/(1-SUM(E56:E$62))</f>
-        <v>234.5357155047318</v>
+        <f ca="1">B34/(1-SUM(E56:E$62))</f>
+        <v>234.77374318911194</v>
       </c>
       <c r="D55" s="1">
         <f>D54+1</f>
         <v>2</v>
       </c>
       <c r="E55" s="23">
-        <f>E42/SUM(B55:B$62)</f>
-        <v>0.18944206822886334</v>
+        <f ca="1">E42/SUM(B55:B$62)</f>
+        <v>0.18967460334351435</v>
       </c>
       <c r="G55" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B41*B$53</f>
-        <v>265.98812797151703</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B41*B$53</f>
+        <v>266.81574355788223</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2013</v>
       </c>
       <c r="B56" s="22">
-        <f>B35/(1-SUM(E57:E$62))</f>
-        <v>260.90450305126689</v>
+        <f ca="1">B35/(1-SUM(E57:E$62))</f>
+        <v>261.05128386099295</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:D62" si="17">D55+1</f>
+        <f t="shared" ref="D56:D62" si="18">D55+1</f>
         <v>3</v>
       </c>
       <c r="E56" s="23">
-        <f>F42/SUM(B56:B$62)</f>
-        <v>0.1008880240051645</v>
+        <f ca="1">F42/SUM(B56:B$62)</f>
+        <v>0.10118652652438882</v>
       </c>
       <c r="G56" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B42*B$53</f>
-        <v>273.4839505360431</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B42*B$53</f>
+        <v>274.33488919187886</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2014</v>
       </c>
       <c r="B57" s="22">
-        <f>B36/(1-SUM(E58:E$62))</f>
-        <v>261.05560218292203</v>
+        <f ca="1">B36/(1-SUM(E58:E$62))</f>
+        <v>261.1411686350865</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="E57" s="23">
-        <f>G42/SUM(B57:B$62)</f>
-        <v>5.4308194448725186E-2</v>
+        <f ca="1">G42/SUM(B57:B$62)</f>
+        <v>5.449861171764158E-2</v>
       </c>
       <c r="G57" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B43*B$53</f>
-        <v>280.67458902515909</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B43*B$53</f>
+        <v>281.54790117764259</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2015</v>
       </c>
       <c r="B58" s="22">
-        <f>B37/(1-SUM(E59:E$62))</f>
-        <v>267.53342643369166</v>
+        <f ca="1">B37/(1-SUM(E59:E$62))</f>
+        <v>267.58750547167944</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="E58" s="23">
-        <f>H42/SUM(B58:B$62)</f>
-        <v>2.6788572881081399E-2</v>
+        <f ca="1">H42/SUM(B58:B$62)</f>
+        <v>2.6901417473534341E-2</v>
       </c>
       <c r="G58" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B44*B$53</f>
-        <v>287.21946733426591</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B44*B$53</f>
+        <v>288.11314371631403</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2016</v>
       </c>
       <c r="B59" s="22">
-        <f>B38/(1-SUM(E60:E$62))</f>
-        <v>289.57748058028761</v>
+        <f ca="1">B38/(1-SUM(E60:E$62))</f>
+        <v>289.60448857239396</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="E59" s="23">
-        <f>I42/SUM(B59:B$62)</f>
-        <v>1.9769031106037217E-2</v>
+        <f ca="1">I42/SUM(B59:B$62)</f>
+        <v>1.9872610134403158E-2</v>
       </c>
       <c r="G59" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B45*B$53</f>
-        <v>293.26896160962127</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B45*B$53</f>
+        <v>294.18146084587011</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2017</v>
       </c>
       <c r="B60" s="22">
-        <f>B39/(1-SUM(E61:E$62))</f>
-        <v>280.65181770043461</v>
+        <f ca="1">B39/(1-SUM(E61:E$62))</f>
+        <v>280.04846891609856</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="E60" s="23">
-        <f>J42/SUM(B60:B$62)</f>
-        <v>8.2457758124598549E-3</v>
+        <f ca="1">J42/SUM(B60:B$62)</f>
+        <v>8.3037772669714884E-3</v>
       </c>
       <c r="G60" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B46*B$53</f>
-        <v>299.29879072682849</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B46*B$53</f>
+        <v>300.23005162961698</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2018</v>
       </c>
       <c r="B61" s="22">
-        <f>B40/(1-SUM(E62:E$62))</f>
-        <v>272.89232090431403</v>
+        <f ca="1">B40/(1-SUM(E62:E$62))</f>
+        <v>271.04521382122567</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="E61" s="23">
-        <f>K42/SUM(B61:B$62)</f>
-        <v>2.3280585354227223E-3</v>
+        <f ca="1">K42/SUM(B61:B$62)</f>
+        <v>2.3499145854461593E-3</v>
       </c>
       <c r="G61" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B47*B$53</f>
-        <v>305.87364477335865</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B47*B$53</f>
+        <v>306.82536317448921</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2019</v>
       </c>
       <c r="B62" s="25">
-        <f>B41</f>
-        <v>313.06854906740534</v>
+        <f ca="1">B41</f>
+        <v>309.46576015631786</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="E62" s="23">
-        <f>L42/B62</f>
-        <v>1.0578918308371855E-3</v>
+        <f ca="1">L42/B62</f>
+        <v>1.0702077683268291E-3</v>
       </c>
       <c r="G62" s="16">
-        <f>'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B48*B$53</f>
-        <v>313.04956605836412</v>
+        <f ca="1">'LRamounts2 - CL on paid losses'!B$39/'LRamounts2 - CL on paid losses'!B48*B$53</f>
+        <v>314.02361216392001</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -17907,8 +17907,8 @@
         <v>41</v>
       </c>
       <c r="B65" s="26">
-        <f>(B62/B53)^(1/10)-1</f>
-        <v>2.3942502164716828E-2</v>
+        <f ca="1">(B62/B53)^(1/10)-1</f>
+        <v>2.2440318111978552E-2</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
@@ -17974,8 +17974,8 @@
         <v>2010</v>
       </c>
       <c r="B71" s="22">
-        <f>B53</f>
-        <v>247.1062546895883</v>
+        <f ca="1">B53</f>
+        <v>247.87511978679794</v>
       </c>
       <c r="C71" s="3">
         <f>'LRamounts1 - case estimates'!B4</f>
@@ -18034,8 +18034,8 @@
         <v>2011</v>
       </c>
       <c r="B72" s="22">
-        <f t="shared" ref="B72:B80" si="18">B54</f>
-        <v>247.78952008973249</v>
+        <f t="shared" ref="B72:B80" ca="1" si="19">B54</f>
+        <v>248.21766630395049</v>
       </c>
       <c r="C72" s="3">
         <f>'LRamounts1 - case estimates'!B5</f>
@@ -18074,20 +18074,20 @@
         <v>781</v>
       </c>
       <c r="L72" s="13">
-        <f>D$84*L$82*$M5</f>
-        <v>349.96083083799948</v>
+        <f ca="1">D$84*L$82*$M5</f>
+        <v>349.44741765507513</v>
       </c>
       <c r="M72" s="3">
         <f>'LRamounts3 - CL on incurred'!B111</f>
         <v>267238</v>
       </c>
       <c r="N72" s="28">
-        <f>L72</f>
-        <v>349.96083083799948</v>
+        <f ca="1">L72</f>
+        <v>349.44741765507513</v>
       </c>
       <c r="O72" s="13">
-        <f t="shared" ref="O72:O80" si="19">M72+N72</f>
-        <v>267587.96083083801</v>
+        <f t="shared" ref="O72:O80" ca="1" si="20">M72+N72</f>
+        <v>267587.44741765509</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -18095,8 +18095,8 @@
         <v>2012</v>
       </c>
       <c r="B73" s="22">
-        <f t="shared" si="18"/>
-        <v>234.5357155047318</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>234.77374318911194</v>
       </c>
       <c r="C73" s="3">
         <f>'LRamounts1 - case estimates'!B6</f>
@@ -18131,24 +18131,24 @@
         <v>2830</v>
       </c>
       <c r="K73" s="13">
-        <f>D$84*K$82*$M6</f>
-        <v>728.99666329104423</v>
+        <f ca="1">D$84*K$82*$M6</f>
+        <v>726.30541578060786</v>
       </c>
       <c r="L73" s="13">
-        <f>E$84*L$82*$M6</f>
-        <v>339.19424758219429</v>
+        <f ca="1">E$84*L$82*$M6</f>
+        <v>338.19974167676986</v>
       </c>
       <c r="M73" s="3">
         <f>'LRamounts3 - CL on incurred'!B112</f>
         <v>250813</v>
       </c>
       <c r="N73" s="28">
-        <f>SUM(K73:L73)</f>
-        <v>1068.1909108732384</v>
+        <f ca="1">SUM(K73:L73)</f>
+        <v>1064.5051574573777</v>
       </c>
       <c r="O73" s="13">
-        <f t="shared" si="19"/>
-        <v>251881.19091087324</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>251877.50515745737</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -18156,8 +18156,8 @@
         <v>2013</v>
       </c>
       <c r="B74" s="22">
-        <f t="shared" si="18"/>
-        <v>260.90450305126689</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>261.05128386099295</v>
       </c>
       <c r="C74" s="3">
         <f>'LRamounts1 - case estimates'!B7</f>
@@ -18188,28 +18188,28 @@
         <v>8387</v>
       </c>
       <c r="J74" s="13">
-        <f>D$84*J$82*$M7</f>
-        <v>2929.5304302577829</v>
+        <f ca="1">D$84*J$82*$M7</f>
+        <v>2911.9086271254573</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" ref="K74:L74" si="20">E$84*K$82*$M7</f>
-        <v>846.90745655497392</v>
+        <f t="shared" ref="K74:L74" ca="1" si="21">E$84*K$82*$M7</f>
+        <v>842.54303968786019</v>
       </c>
       <c r="L74" s="13">
-        <f t="shared" si="20"/>
-        <v>394.05686193549332</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>392.32509104691542</v>
       </c>
       <c r="M74" s="3">
         <f>'LRamounts3 - CL on incurred'!B113</f>
         <v>283273</v>
       </c>
       <c r="N74" s="28">
-        <f>SUM(J74:L74)</f>
-        <v>4170.4947487482505</v>
+        <f ca="1">SUM(J74:L74)</f>
+        <v>4146.7767578602325</v>
       </c>
       <c r="O74" s="13">
-        <f t="shared" si="19"/>
-        <v>287443.49474874826</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>287419.77675786021</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -18217,8 +18217,8 @@
         <v>2014</v>
       </c>
       <c r="B75" s="22">
-        <f t="shared" si="18"/>
-        <v>261.05560218292203</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>261.1411686350865</v>
       </c>
       <c r="C75" s="3">
         <f>'LRamounts1 - case estimates'!B8</f>
@@ -18245,32 +18245,32 @@
         <v>7489</v>
       </c>
       <c r="I75" s="13">
-        <f>D$84*I$82*$M8</f>
-        <v>6355.9408785776577</v>
+        <f ca="1">D$84*I$82*$M8</f>
+        <v>6306.4497206669539</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" ref="J75:L75" si="21">E$84*J$82*$M8</f>
-        <v>2714.5732007522256</v>
+        <f t="shared" ref="J75:L75" ca="1" si="22">E$84*J$82*$M8</f>
+        <v>2694.2859313489921</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="21"/>
-        <v>784.76477367707821</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>779.57523709387101</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="21"/>
-        <v>365.14254500796653</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>363.00451307992734</v>
       </c>
       <c r="M75" s="3">
         <f>'LRamounts3 - CL on incurred'!B114</f>
         <v>264505</v>
       </c>
       <c r="N75" s="28">
-        <f>SUM(I75:L75)</f>
-        <v>10220.421398014927</v>
+        <f ca="1">SUM(I75:L75)</f>
+        <v>10143.315402189746</v>
       </c>
       <c r="O75" s="13">
-        <f t="shared" si="19"/>
-        <v>274725.42139801494</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>274648.31540218974</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -18278,8 +18278,8 @@
         <v>2015</v>
       </c>
       <c r="B76" s="22">
-        <f t="shared" si="18"/>
-        <v>267.53342643369166</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>267.58750547167944</v>
       </c>
       <c r="C76" s="3">
         <f>'LRamounts1 - case estimates'!B9</f>
@@ -18302,36 +18302,36 @@
         <v>17224</v>
       </c>
       <c r="H76" s="13">
-        <f>D$84*H$82*$M9</f>
-        <v>8952.1676080678535</v>
+        <f ca="1">D$84*H$82*$M9</f>
+        <v>8873.3855484259602</v>
       </c>
       <c r="I76" s="13">
-        <f t="shared" ref="I76:L76" si="22">E$84*I$82*$M9</f>
-        <v>6764.56044575947</v>
+        <f t="shared" ref="I76:L76" ca="1" si="23">E$84*I$82*$M9</f>
+        <v>6702.0407965147442</v>
       </c>
       <c r="J76" s="13">
-        <f t="shared" si="22"/>
-        <v>2889.0914581692059</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>2863.2931410205524</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="22"/>
-        <v>835.21682291502225</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>828.47644465216183</v>
       </c>
       <c r="L76" s="13">
-        <f t="shared" si="22"/>
-        <v>388.61733678957449</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>385.77506580411602</v>
       </c>
       <c r="M76" s="3">
         <f>'LRamounts3 - CL on incurred'!B115</f>
         <v>269873</v>
       </c>
       <c r="N76" s="28">
-        <f>SUM(H76:L76)</f>
-        <v>19829.653671701126</v>
+        <f ca="1">SUM(H76:L76)</f>
+        <v>19652.970996417534</v>
       </c>
       <c r="O76" s="13">
-        <f t="shared" si="19"/>
-        <v>289702.65367170115</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>289525.97099641751</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -18339,8 +18339,8 @@
         <v>2016</v>
       </c>
       <c r="B77" s="22">
-        <f t="shared" si="18"/>
-        <v>289.57748058028761</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>289.60448857239396</v>
       </c>
       <c r="C77" s="3">
         <f>'LRamounts1 - case estimates'!B10</f>
@@ -18359,40 +18359,40 @@
         <v>27368</v>
       </c>
       <c r="G77" s="13">
-        <f>D$84*G$82*$M10</f>
-        <v>18120.151154479918</v>
+        <f ca="1">D$84*G$82*$M10</f>
+        <v>17948.057496638387</v>
       </c>
       <c r="H77" s="13">
-        <f t="shared" ref="H77:L77" si="23">E$84*H$82*$M10</f>
-        <v>9152.1177682820708</v>
+        <f t="shared" ref="H77:L77" ca="1" si="24">E$84*H$82*$M10</f>
+        <v>9058.2675433262993</v>
       </c>
       <c r="I77" s="13">
-        <f t="shared" si="23"/>
-        <v>6915.6495455311715</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>6841.6815982809767</v>
       </c>
       <c r="J77" s="13">
-        <f t="shared" si="23"/>
-        <v>2953.6204443572938</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2922.9514692885309</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="23"/>
-        <v>853.87171688784758</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>845.73821886216479</v>
       </c>
       <c r="L77" s="13">
-        <f t="shared" si="23"/>
-        <v>397.2972567994579</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>393.81290698203333</v>
       </c>
       <c r="M77" s="3">
         <f>'LRamounts3 - CL on incurred'!B116</f>
         <v>263414</v>
       </c>
       <c r="N77" s="28">
-        <f>SUM(G77:L77)</f>
-        <v>38392.707886337761</v>
+        <f ca="1">SUM(G77:L77)</f>
+        <v>38010.50923337839</v>
       </c>
       <c r="O77" s="13">
-        <f t="shared" si="19"/>
-        <v>301806.70788633777</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>301424.5092333784</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -18400,8 +18400,8 @@
         <v>2017</v>
       </c>
       <c r="B78" s="22">
-        <f t="shared" si="18"/>
-        <v>280.65181770043461</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>280.04846891609856</v>
       </c>
       <c r="C78" s="3">
         <f>'LRamounts1 - case estimates'!B11</f>
@@ -18416,44 +18416,44 @@
         <v>57387</v>
       </c>
       <c r="F78" s="13">
-        <f>D$84*F$82*$M11</f>
-        <v>29748.8820594629</v>
+        <f ca="1">D$84*F$82*$M11</f>
+        <v>29705.757990940059</v>
       </c>
       <c r="G78" s="13">
-        <f t="shared" ref="G78:L78" si="24">E$84*G$82*$M11</f>
-        <v>16397.285877880426</v>
+        <f t="shared" ref="G78:L78" ca="1" si="25">E$84*G$82*$M11</f>
+        <v>16358.42008677691</v>
       </c>
       <c r="H78" s="13">
-        <f t="shared" si="24"/>
-        <v>8281.9337518300872</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>8255.987911778293</v>
       </c>
       <c r="I78" s="13">
-        <f t="shared" si="24"/>
-        <v>6258.1090887463515</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>6235.7222616215477</v>
       </c>
       <c r="J78" s="13">
-        <f t="shared" si="24"/>
-        <v>2672.7899998176827</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>2664.0692474290977</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="24"/>
-        <v>772.68553255887434</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>770.8322234972228</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" si="24"/>
-        <v>359.52220501360182</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>358.93338146557073</v>
       </c>
       <c r="M78" s="3">
         <f>'LRamounts3 - CL on incurred'!B117</f>
         <v>204821</v>
       </c>
       <c r="N78" s="28">
-        <f>SUM(F78:L78)</f>
-        <v>64491.208515309925</v>
+        <f ca="1">SUM(F78:L78)</f>
+        <v>64349.723103508695</v>
       </c>
       <c r="O78" s="13">
-        <f t="shared" si="19"/>
-        <v>269312.2085153099</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>269170.7231035087</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -18461,8 +18461,8 @@
         <v>2018</v>
       </c>
       <c r="B79" s="22">
-        <f t="shared" si="18"/>
-        <v>272.89232090431403</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>271.04521382122567</v>
       </c>
       <c r="C79" s="3">
         <f>'LRamounts1 - case estimates'!B12</f>
@@ -18473,48 +18473,48 @@
         <v>109214</v>
       </c>
       <c r="E79" s="13">
-        <f>D$84*E$82*$M12</f>
-        <v>63811.376569068314</v>
+        <f ca="1">D$84*E$82*$M12</f>
+        <v>63958.031425734509</v>
       </c>
       <c r="F79" s="13">
-        <f t="shared" ref="F79:L79" si="25">E$84*F$82*$M12</f>
-        <v>34796.605007232814</v>
+        <f t="shared" ref="F79:L79" ca="1" si="26">E$84*F$82*$M12</f>
+        <v>34885.629032044599</v>
       </c>
       <c r="G79" s="13">
-        <f t="shared" si="25"/>
-        <v>19179.540217437778</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>19210.880761625256</v>
       </c>
       <c r="H79" s="13">
-        <f t="shared" si="25"/>
-        <v>9687.1935181454064</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>9695.606207765637</v>
       </c>
       <c r="I79" s="13">
-        <f t="shared" si="25"/>
-        <v>7319.9708687544544</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>7323.0615300958816</v>
       </c>
       <c r="J79" s="13">
-        <f t="shared" si="25"/>
-        <v>3126.302955016552</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>3128.6099991063938</v>
       </c>
       <c r="K79" s="13">
-        <f t="shared" si="25"/>
-        <v>903.79306413976553</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>905.2442628486931</v>
       </c>
       <c r="L79" s="13">
-        <f t="shared" si="25"/>
-        <v>420.52511869797445</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>421.52153790669848</v>
       </c>
       <c r="M79" s="3">
         <f>'LRamounts3 - CL on incurred'!B118</f>
         <v>190264</v>
       </c>
       <c r="N79" s="28">
-        <f>SUM(E79:L79)</f>
-        <v>139245.30731849305</v>
+        <f ca="1">SUM(E79:L79)</f>
+        <v>139528.58475712765</v>
       </c>
       <c r="O79" s="13">
-        <f t="shared" si="19"/>
-        <v>329509.30731849303</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>329792.58475712768</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -18522,60 +18522,60 @@
         <v>2019</v>
       </c>
       <c r="B80" s="22">
-        <f t="shared" si="18"/>
-        <v>313.06854906740534</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>309.46576015631786</v>
       </c>
       <c r="C80" s="3">
         <f>'LRamounts1 - case estimates'!B13</f>
         <v>77289</v>
       </c>
       <c r="D80" s="13">
-        <f>D$84*D$82*$M13</f>
-        <v>97730.648312396996</v>
+        <f ca="1">D$84*D$82*$M13</f>
+        <v>98264.881463145663</v>
       </c>
       <c r="E80" s="13">
-        <f t="shared" ref="E80:L80" si="26">E$84*E$82*$M13</f>
-        <v>56602.926956614101</v>
+        <f t="shared" ref="E80:L80" ca="1" si="27">E$84*E$82*$M13</f>
+        <v>56935.423135353347</v>
       </c>
       <c r="F80" s="13">
-        <f t="shared" si="26"/>
-        <v>30865.807908574137</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>31055.177997289586</v>
       </c>
       <c r="G80" s="13">
-        <f t="shared" si="26"/>
-        <v>17012.924220715075</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>17101.521116015054</v>
       </c>
       <c r="H80" s="13">
-        <f t="shared" si="26"/>
-        <v>8592.8800882186624</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>8631.0261539847797</v>
       </c>
       <c r="I80" s="13">
-        <f t="shared" si="26"/>
-        <v>6493.0706511273265</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>6518.9874917643911</v>
       </c>
       <c r="J80" s="13">
-        <f t="shared" si="26"/>
-        <v>2773.1402662268624</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>2785.0878170235101</v>
       </c>
       <c r="K80" s="13">
-        <f t="shared" si="26"/>
-        <v>801.69611664819354</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>805.84821010302801</v>
       </c>
       <c r="L80" s="13">
-        <f t="shared" si="26"/>
-        <v>373.02051541419144</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>375.23836469623097</v>
       </c>
       <c r="M80" s="3">
         <f>'LRamounts3 - CL on incurred'!B119</f>
         <v>77289</v>
       </c>
       <c r="N80" s="28">
-        <f>SUM(D80:L80)</f>
-        <v>221246.11503593554</v>
+        <f ca="1">SUM(D80:L80)</f>
+        <v>222473.19174937558</v>
       </c>
       <c r="O80" s="13">
-        <f t="shared" si="19"/>
-        <v>298535.11503593554</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>299762.19174937555</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -18586,39 +18586,48 @@
         <v>38</v>
       </c>
       <c r="C82" s="10" cm="1">
-        <f t="array" ref="C82:L82">TRANSPOSE(E53:E62)</f>
-        <v>0.26225022027943484</v>
+        <f t="array" aca="1" ref="C82:L82" ca="1">TRANSPOSE(E53:E62)</f>
+        <v>0.26143676614461964</v>
       </c>
       <c r="D82" s="10">
-        <v>0.33492216287197391</v>
+        <f ca="1"/>
+        <v>0.33470556504115367</v>
       </c>
       <c r="E82" s="10">
-        <v>0.18944206822886334</v>
+        <f ca="1"/>
+        <v>0.18967460334351435</v>
       </c>
       <c r="F82" s="10">
-        <v>0.1008880240051645</v>
+        <f ca="1"/>
+        <v>0.10118652652438882</v>
       </c>
       <c r="G82" s="10">
-        <v>5.4308194448725186E-2</v>
+        <f ca="1"/>
+        <v>5.449861171764158E-2</v>
       </c>
       <c r="H82" s="10">
-        <v>2.6788572881081399E-2</v>
+        <f ca="1"/>
+        <v>2.6901417473534341E-2</v>
       </c>
       <c r="I82" s="10">
-        <v>1.9769031106037217E-2</v>
+        <f ca="1"/>
+        <v>1.9872610134403158E-2</v>
       </c>
       <c r="J82" s="10">
-        <v>8.2457758124598549E-3</v>
+        <f ca="1"/>
+        <v>8.3037772669714884E-3</v>
       </c>
       <c r="K82" s="10">
-        <v>2.3280585354227223E-3</v>
+        <f ca="1"/>
+        <v>2.3499145854461593E-3</v>
       </c>
       <c r="L82" s="10">
-        <v>1.0578918308371855E-3</v>
+        <f ca="1"/>
+        <v>1.0702077683268291E-3</v>
       </c>
       <c r="N82" s="29">
-        <f>SUM(N71:N80)</f>
-        <v>499014.06031625182</v>
+        <f ca="1">SUM(N71:N80)</f>
+        <v>499719.02457497024</v>
       </c>
     </row>
     <row r="83" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -18627,40 +18636,40 @@
         <v>43</v>
       </c>
       <c r="D84" s="16">
-        <f>(1+B65)*B62</f>
-        <v>320.56419348115645</v>
+        <f ca="1">(1+B65)*B62</f>
+        <v>316.41027025899086</v>
       </c>
       <c r="E84" s="16">
-        <f t="shared" ref="E84:L84" si="27">D84*(1+$B65)</f>
-        <v>328.23930237750972</v>
+        <f t="shared" ref="E84:L84" ca="1" si="28">D84*(1+$B65)</f>
+        <v>323.51061737749973</v>
       </c>
       <c r="F84" s="16">
-        <f t="shared" si="27"/>
-        <v>336.09817258522838</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>330.77029854405339</v>
       </c>
       <c r="G84" s="16">
-        <f t="shared" si="27"/>
-        <v>344.14520380990757</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>338.19288926537604</v>
       </c>
       <c r="H84" s="16">
-        <f t="shared" si="27"/>
-        <v>352.38490109710318</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>345.7820452837002</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="27"/>
-        <v>360.82187735443409</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>353.54150437727702</v>
       </c>
       <c r="J84" s="16">
-        <f t="shared" si="27"/>
-        <v>369.4608559340698</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>361.47508820129059</v>
       </c>
       <c r="K84" s="16">
-        <f t="shared" si="27"/>
-        <v>378.30667327704941</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>369.58670417008307</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="27"/>
-        <v>387.36428162091198</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>377.88034738161747</v>
       </c>
     </row>
   </sheetData>
@@ -18673,7 +18682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6BCF64-09FB-A244-9983-B776A3EDA933}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -19062,28 +19071,28 @@
         <v>813.7191655015489</v>
       </c>
       <c r="F11" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!G11)</f>
-        <v>861.89486525755956</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!G11)</f>
+        <v>869.87475691829673</v>
       </c>
       <c r="G11" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!H11)</f>
-        <v>889.07620141874725</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!H11)</f>
+        <v>897.05609307948441</v>
       </c>
       <c r="H11" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!I11)</f>
-        <v>908.56229254584559</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!I11)</f>
+        <v>916.54218420658276</v>
       </c>
       <c r="I11" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!J11)</f>
-        <v>917.07725566152385</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!J11)</f>
+        <v>925.05714732226102</v>
       </c>
       <c r="J11" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!K11)</f>
-        <v>918.93652828520635</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!K11)</f>
+        <v>926.91641994594352</v>
       </c>
       <c r="K11" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!L11)</f>
-        <v>919.84790419285855</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C11:'LRamounts4 - separation method'!L11)</f>
+        <v>927.82779585359572</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -19107,28 +19116,28 @@
         <v>941.13716670350777</v>
       </c>
       <c r="F12" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!G12)</f>
-        <v>987.50467371307946</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!G12)</f>
+        <v>1002.4379639936799</v>
       </c>
       <c r="G12" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!H12)</f>
-        <v>1017.1764755061962</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!H12)</f>
+        <v>1032.1097657867967</v>
       </c>
       <c r="H12" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!I12)</f>
-        <v>1038.4479623167479</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!I12)</f>
+        <v>1053.3812525973483</v>
       </c>
       <c r="I12" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!J12)</f>
-        <v>1047.7431013174887</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!J12)</f>
+        <v>1062.6763915980891</v>
       </c>
       <c r="J12" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!K12)</f>
-        <v>1049.7727281335556</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!K12)</f>
+        <v>1064.706018414156</v>
       </c>
       <c r="K12" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!L12)</f>
-        <v>1050.7676080441868</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C12:'LRamounts4 - separation method'!L12)</f>
+        <v>1065.7008983247872</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -19152,28 +19161,28 @@
         <v>819.58426353335585</v>
       </c>
       <c r="F13" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!G13)</f>
-        <v>855.28023168097275</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!G13)</f>
+        <v>872.87184721686845</v>
       </c>
       <c r="G13" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!H13)</f>
-        <v>881.07334842636942</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!H13)</f>
+        <v>898.66496396226512</v>
       </c>
       <c r="H13" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!I13)</f>
-        <v>899.56423571653727</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!I13)</f>
+        <v>917.15585125243297</v>
       </c>
       <c r="I13" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!J13)</f>
-        <v>907.64431818279377</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!J13)</f>
+        <v>925.23593371868947</v>
       </c>
       <c r="J13" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!K13)</f>
-        <v>909.40863306267227</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!K13)</f>
+        <v>927.00024859856796</v>
       </c>
       <c r="K13" s="17">
-        <f>SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!L13)</f>
-        <v>910.2734627033351</v>
+        <f ca="1">SUM('LRamounts4 - separation method'!$C13:'LRamounts4 - separation method'!L13)</f>
+        <v>927.8650782392308</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -20289,20 +20298,20 @@
         <v>298.99682167385384</v>
       </c>
       <c r="C59" s="17">
-        <f t="shared" si="6"/>
-        <v>919.84790419285855</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>927.82779585359572</v>
       </c>
       <c r="D59" s="13">
-        <f t="shared" si="7"/>
-        <v>275031.59977702034</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>277417.56202088244</v>
       </c>
       <c r="E59" s="3">
         <f>'LRamounts2 - CL on paid losses'!B117</f>
         <v>204821</v>
       </c>
       <c r="F59" s="28">
-        <f t="shared" si="8"/>
-        <v>70210.599777020339</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>72596.56202088244</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -20315,20 +20324,20 @@
         <v>303.7665322300362</v>
       </c>
       <c r="C60" s="17">
-        <f t="shared" si="6"/>
-        <v>1050.7676080441868</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1065.7008983247872</v>
       </c>
       <c r="D60" s="13">
-        <f t="shared" si="7"/>
-        <v>319188.0324752325</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>323724.26627855503</v>
       </c>
       <c r="E60" s="3">
         <f>'LRamounts2 - CL on paid losses'!B118</f>
         <v>190264</v>
       </c>
       <c r="F60" s="28">
-        <f t="shared" si="8"/>
-        <v>128924.0324752325</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>133460.26627855503</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -20341,20 +20350,20 @@
         <v>323.16792979047881</v>
       </c>
       <c r="C61" s="17">
-        <f t="shared" si="6"/>
-        <v>910.2734627033351</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>927.8650782392308</v>
       </c>
       <c r="D61" s="13">
-        <f t="shared" si="7"/>
-        <v>294171.19048504741</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>299856.23645945289</v>
       </c>
       <c r="E61" s="3">
         <f>'LRamounts2 - CL on paid losses'!B119</f>
         <v>77289</v>
       </c>
       <c r="F61" s="28">
-        <f t="shared" si="8"/>
-        <v>216882.19048504741</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>222567.23645945289</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -20362,8 +20371,8 @@
     </row>
     <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F63" s="29">
-        <f>SUM(F52:F61)</f>
-        <v>497365.5176862193</v>
+        <f ca="1">SUM(F52:F61)</f>
+        <v>509972.75970780943</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -20472,8 +20481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FBCDE-374F-8347-AD8D-76FB3C6D7305}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20596,12 +20605,12 @@
         <v>934</v>
       </c>
       <c r="C10" s="32">
-        <f>'LRamounts5 PPCI'!K11</f>
-        <v>919.84790419285855</v>
+        <f ca="1">'LRamounts5 PPCI'!K11</f>
+        <v>927.82779585359572</v>
       </c>
       <c r="D10" s="33">
-        <f t="shared" si="0"/>
-        <v>0.98484786316151884</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99339164438286476</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -20609,12 +20618,12 @@
         <v>1020</v>
       </c>
       <c r="C11" s="32">
-        <f>'LRamounts5 PPCI'!K12</f>
-        <v>1050.7676080441868</v>
+        <f ca="1">'LRamounts5 PPCI'!K12</f>
+        <v>1065.7008983247872</v>
       </c>
       <c r="D11" s="33">
-        <f t="shared" si="0"/>
-        <v>1.0301643216119478</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0448048022792031</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -20622,12 +20631,12 @@
         <v>968</v>
       </c>
       <c r="C12" s="32">
-        <f>'LRamounts5 PPCI'!K13</f>
-        <v>910.2734627033351</v>
+        <f ca="1">'LRamounts5 PPCI'!K13</f>
+        <v>927.8650782392308</v>
       </c>
       <c r="D12" s="33">
-        <f t="shared" si="0"/>
-        <v>0.94036514742080068</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95853830396614748</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -20720,8 +20729,8 @@
         <v>268721.80224462796</v>
       </c>
       <c r="G17" s="35">
-        <f>'LRamounts4 - separation method'!O72</f>
-        <v>267587.96083083801</v>
+        <f ca="1">'LRamounts4 - separation method'!O72</f>
+        <v>267587.44741765509</v>
       </c>
       <c r="H17" s="35">
         <f>'LRamounts5 PPCI'!D53</f>
@@ -20752,8 +20761,8 @@
         <v>254641.45210453306</v>
       </c>
       <c r="G18" s="35">
-        <f>'LRamounts4 - separation method'!O73</f>
-        <v>251881.19091087324</v>
+        <f ca="1">'LRamounts4 - separation method'!O73</f>
+        <v>251877.50515745737</v>
       </c>
       <c r="H18" s="35">
         <f>'LRamounts5 PPCI'!D54</f>
@@ -20784,8 +20793,8 @@
         <v>289067.86520188098</v>
       </c>
       <c r="G19" s="35">
-        <f>'LRamounts4 - separation method'!O74</f>
-        <v>287443.49474874826</v>
+        <f ca="1">'LRamounts4 - separation method'!O74</f>
+        <v>287419.77675786021</v>
       </c>
       <c r="H19" s="35">
         <f>'LRamounts5 PPCI'!D55</f>
@@ -20816,8 +20825,8 @@
         <v>275241.3952098841</v>
       </c>
       <c r="G20" s="35">
-        <f>'LRamounts4 - separation method'!O75</f>
-        <v>274725.42139801494</v>
+        <f ca="1">'LRamounts4 - separation method'!O75</f>
+        <v>274648.31540218974</v>
       </c>
       <c r="H20" s="35">
         <f>'LRamounts5 PPCI'!D56</f>
@@ -20848,8 +20857,8 @@
         <v>293810.7504476062</v>
       </c>
       <c r="G21" s="35">
-        <f>'LRamounts4 - separation method'!O76</f>
-        <v>289702.65367170115</v>
+        <f ca="1">'LRamounts4 - separation method'!O76</f>
+        <v>289525.97099641751</v>
       </c>
       <c r="H21" s="35">
         <f>'LRamounts5 PPCI'!D57</f>
@@ -20880,8 +20889,8 @@
         <v>297720.70203879173</v>
       </c>
       <c r="G22" s="35">
-        <f>'LRamounts4 - separation method'!O77</f>
-        <v>301806.70788633777</v>
+        <f ca="1">'LRamounts4 - separation method'!O77</f>
+        <v>301424.5092333784</v>
       </c>
       <c r="H22" s="35">
         <f>'LRamounts5 PPCI'!D58</f>
@@ -20912,12 +20921,12 @@
         <v>271977.22434788593</v>
       </c>
       <c r="G23" s="35">
-        <f>'LRamounts4 - separation method'!O78</f>
-        <v>269312.2085153099</v>
+        <f ca="1">'LRamounts4 - separation method'!O78</f>
+        <v>269170.7231035087</v>
       </c>
       <c r="H23" s="35">
-        <f>'LRamounts5 PPCI'!D59</f>
-        <v>275031.59977702034</v>
+        <f ca="1">'LRamounts5 PPCI'!D59</f>
+        <v>277417.56202088244</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -20944,12 +20953,12 @@
         <v>322173.37131103192</v>
       </c>
       <c r="G24" s="35">
-        <f>'LRamounts4 - separation method'!O79</f>
-        <v>329509.30731849303</v>
+        <f ca="1">'LRamounts4 - separation method'!O79</f>
+        <v>329792.58475712768</v>
       </c>
       <c r="H24" s="35">
-        <f>'LRamounts5 PPCI'!D60</f>
-        <v>319188.0324752325</v>
+        <f ca="1">'LRamounts5 PPCI'!D60</f>
+        <v>323724.26627855503</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -20976,12 +20985,12 @@
         <v>301889.66157561337</v>
       </c>
       <c r="G25" s="35">
-        <f>'LRamounts4 - separation method'!O80</f>
-        <v>298535.11503593554</v>
+        <f ca="1">'LRamounts4 - separation method'!O80</f>
+        <v>299762.19174937555</v>
       </c>
       <c r="H25" s="35">
-        <f>'LRamounts5 PPCI'!D61</f>
-        <v>294171.19048504741</v>
+        <f ca="1">'LRamounts5 PPCI'!D61</f>
+        <v>299856.23645945289</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -21076,8 +21085,8 @@
         <v>1.0006844552526195</v>
       </c>
       <c r="G30" s="36">
-        <f t="shared" si="2"/>
-        <v>0.99646217976911278</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99646026788631437</v>
       </c>
       <c r="H30" s="36">
         <f t="shared" si="2"/>
@@ -21109,8 +21118,8 @@
         <v>1.0021584699481412</v>
       </c>
       <c r="G31" s="36">
-        <f t="shared" si="2"/>
-        <v>0.99129527736251388</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99128077183337349</v>
       </c>
       <c r="H31" s="36">
         <f t="shared" si="2"/>
@@ -21142,8 +21151,8 @@
         <v>1.0032480432644795</v>
       </c>
       <c r="G32" s="36">
-        <f t="shared" si="2"/>
-        <v>0.99761045197599796</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99752813556932307</v>
       </c>
       <c r="H32" s="36">
         <f t="shared" si="2"/>
@@ -21175,8 +21184,8 @@
         <v>1.0004012459878535</v>
       </c>
       <c r="G33" s="36">
-        <f t="shared" si="2"/>
-        <v>0.99852587094153311</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99824561900400077</v>
       </c>
       <c r="H33" s="36">
         <f t="shared" si="2"/>
@@ -21208,8 +21217,8 @@
         <v>1.0043266863135798</v>
       </c>
       <c r="G34" s="36">
-        <f t="shared" si="2"/>
-        <v>0.99028407141363262</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98968012099477864</v>
       </c>
       <c r="H34" s="36">
         <f t="shared" si="2"/>
@@ -21241,8 +21250,8 @@
         <v>0.99918011188828126</v>
       </c>
       <c r="G35" s="36">
-        <f t="shared" si="2"/>
-        <v>1.0128931514987927</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.011610455031223</v>
       </c>
       <c r="H35" s="36">
         <f t="shared" si="2"/>
@@ -21274,12 +21283,12 @@
         <v>0.99216859650335587</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="2"/>
-        <v>0.98244666105598166</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98193052451995699</v>
       </c>
       <c r="H36" s="36">
-        <f t="shared" si="2"/>
-        <v>1.0033109095774917</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0120148619634999</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -21307,12 +21316,12 @@
         <v>1.027171510089341</v>
       </c>
       <c r="G37" s="36">
-        <f t="shared" si="2"/>
-        <v>1.0505603595030559</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0514635207830605</v>
       </c>
       <c r="H37" s="36">
-        <f t="shared" si="2"/>
-        <v>1.0176534826135817</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.032116161844072</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -21340,12 +21349,12 @@
         <v>0.96792081173347877</v>
       </c>
       <c r="G38" s="36">
-        <f t="shared" si="2"/>
-        <v>0.95716544040762286</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96109970262227851</v>
       </c>
       <c r="H38" s="36">
-        <f t="shared" si="2"/>
-        <v>0.94317379401736934</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96140122945046536</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -21442,8 +21451,8 @@
         <v>1483.8022446279647</v>
       </c>
       <c r="G43" s="35">
-        <f>'LRamounts4 - separation method'!N72</f>
-        <v>349.96083083799948</v>
+        <f ca="1">'LRamounts4 - separation method'!N72</f>
+        <v>349.44741765507513</v>
       </c>
       <c r="H43" s="35">
         <f>'LRamounts5 PPCI'!F53</f>
@@ -21474,8 +21483,8 @@
         <v>3828.4521045330621</v>
       </c>
       <c r="G44" s="35">
-        <f>'LRamounts4 - separation method'!N73</f>
-        <v>1068.1909108732384</v>
+        <f ca="1">'LRamounts4 - separation method'!N73</f>
+        <v>1064.5051574573777</v>
       </c>
       <c r="H44" s="35">
         <f>'LRamounts5 PPCI'!F54</f>
@@ -21506,8 +21515,8 @@
         <v>5794.8652018809807</v>
       </c>
       <c r="G45" s="35">
-        <f>'LRamounts4 - separation method'!N74</f>
-        <v>4170.4947487482505</v>
+        <f ca="1">'LRamounts4 - separation method'!N74</f>
+        <v>4146.7767578602325</v>
       </c>
       <c r="H45" s="35">
         <f>'LRamounts5 PPCI'!F55</f>
@@ -21538,8 +21547,8 @@
         <v>10736.395209884096</v>
       </c>
       <c r="G46" s="35">
-        <f>'LRamounts4 - separation method'!N75</f>
-        <v>10220.421398014927</v>
+        <f ca="1">'LRamounts4 - separation method'!N75</f>
+        <v>10143.315402189746</v>
       </c>
       <c r="H46" s="35">
         <f>'LRamounts5 PPCI'!F56</f>
@@ -21570,8 +21579,8 @@
         <v>23937.750447606202</v>
       </c>
       <c r="G47" s="35">
-        <f>'LRamounts4 - separation method'!N76</f>
-        <v>19829.653671701126</v>
+        <f ca="1">'LRamounts4 - separation method'!N76</f>
+        <v>19652.970996417534</v>
       </c>
       <c r="H47" s="35">
         <f>'LRamounts5 PPCI'!F57</f>
@@ -21602,8 +21611,8 @@
         <v>34306.702038791729</v>
       </c>
       <c r="G48" s="35">
-        <f>'LRamounts4 - separation method'!N77</f>
-        <v>38392.707886337761</v>
+        <f ca="1">'LRamounts4 - separation method'!N77</f>
+        <v>38010.50923337839</v>
       </c>
       <c r="H48" s="35">
         <f>'LRamounts5 PPCI'!F58</f>
@@ -21634,12 +21643,12 @@
         <v>67156.224347885931</v>
       </c>
       <c r="G49" s="35">
-        <f>'LRamounts4 - separation method'!N78</f>
-        <v>64491.208515309925</v>
+        <f ca="1">'LRamounts4 - separation method'!N78</f>
+        <v>64349.723103508695</v>
       </c>
       <c r="H49" s="35">
-        <f>'LRamounts5 PPCI'!F59</f>
-        <v>70210.599777020339</v>
+        <f ca="1">'LRamounts5 PPCI'!F59</f>
+        <v>72596.56202088244</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -21666,12 +21675,12 @@
         <v>131909.37131103192</v>
       </c>
       <c r="G50" s="35">
-        <f>'LRamounts4 - separation method'!N79</f>
-        <v>139245.30731849305</v>
+        <f ca="1">'LRamounts4 - separation method'!N79</f>
+        <v>139528.58475712765</v>
       </c>
       <c r="H50" s="35">
-        <f>'LRamounts5 PPCI'!F60</f>
-        <v>128924.0324752325</v>
+        <f ca="1">'LRamounts5 PPCI'!F60</f>
+        <v>133460.26627855503</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -21698,12 +21707,12 @@
         <v>224600.66157561337</v>
       </c>
       <c r="G51" s="35">
-        <f>'LRamounts4 - separation method'!N80</f>
-        <v>221246.11503593554</v>
+        <f ca="1">'LRamounts4 - separation method'!N80</f>
+        <v>222473.19174937558</v>
       </c>
       <c r="H51" s="35">
-        <f>'LRamounts5 PPCI'!F61</f>
-        <v>216882.19048504741</v>
+        <f ca="1">'LRamounts5 PPCI'!F61</f>
+        <v>222567.23645945289</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -21731,12 +21740,12 @@
         <v>503754.22448185523</v>
       </c>
       <c r="G52" s="39">
-        <f t="shared" si="3"/>
-        <v>499014.06031625182</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>499719.02457497024</v>
       </c>
       <c r="H52" s="39">
-        <f t="shared" si="3"/>
-        <v>497365.5176862193</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>509972.75970780943</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -21835,8 +21844,8 @@
         <v>183.80224462796468</v>
       </c>
       <c r="G57" s="35">
-        <f t="shared" si="6"/>
-        <v>-950.03916916200046</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-950.55258234492487</v>
       </c>
       <c r="H57" s="35">
         <f t="shared" si="6"/>
@@ -21868,8 +21877,8 @@
         <v>548.45210453306208</v>
       </c>
       <c r="G58" s="35">
-        <f t="shared" si="7"/>
-        <v>-2211.8090891267616</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-2215.4948425426223</v>
       </c>
       <c r="H58" s="35">
         <f t="shared" si="7"/>
@@ -21901,8 +21910,8 @@
         <v>935.86520188098075</v>
       </c>
       <c r="G59" s="35">
-        <f t="shared" si="8"/>
-        <v>-688.50525125174954</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>-712.22324213976754</v>
       </c>
       <c r="H59" s="35">
         <f t="shared" si="8"/>
@@ -21934,8 +21943,8 @@
         <v>110.3952098840964</v>
       </c>
       <c r="G60" s="35">
-        <f t="shared" si="9"/>
-        <v>-405.57860198507296</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-482.68459781025376</v>
       </c>
       <c r="H60" s="35">
         <f t="shared" si="9"/>
@@ -21967,8 +21976,8 @@
         <v>1265.7504476062022</v>
       </c>
       <c r="G61" s="35">
-        <f t="shared" si="10"/>
-        <v>-2842.3463282988741</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-3019.0290035824655</v>
       </c>
       <c r="H61" s="35">
         <f t="shared" si="10"/>
@@ -22000,8 +22009,8 @@
         <v>-244.29796120827086</v>
       </c>
       <c r="G62" s="35">
-        <f t="shared" si="11"/>
-        <v>3841.707886337761</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3459.5092333783905</v>
       </c>
       <c r="H62" s="35">
         <f t="shared" si="11"/>
@@ -22033,12 +22042,12 @@
         <v>-2146.7756521140691</v>
       </c>
       <c r="G63" s="35">
-        <f t="shared" si="12"/>
-        <v>-4811.7914846900749</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-4953.2768964913048</v>
       </c>
       <c r="H63" s="35">
-        <f t="shared" si="12"/>
-        <v>907.59977702033939</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3293.5620208824403</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -22066,12 +22075,12 @@
         <v>8522.3713110319222</v>
       </c>
       <c r="G64" s="35">
-        <f t="shared" si="13"/>
-        <v>15858.307318493054</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>16141.584757127654</v>
       </c>
       <c r="H64" s="35">
-        <f t="shared" si="13"/>
-        <v>5537.0324752324959</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>10073.266278555035</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -22099,12 +22108,12 @@
         <v>-10005.338424386631</v>
       </c>
       <c r="G65" s="35">
-        <f t="shared" si="14"/>
-        <v>-13359.884964064462</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-12132.808250624425</v>
       </c>
       <c r="H65" s="35">
-        <f t="shared" si="14"/>
-        <v>-17723.809514952591</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-12038.763540547108</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -22132,12 +22141,12 @@
         <v>-829.77551814477192</v>
       </c>
       <c r="G66" s="39">
-        <f t="shared" si="14"/>
-        <v>-5569.9396837481763</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-4864.9754250297556</v>
       </c>
       <c r="H66" s="39">
-        <f t="shared" si="14"/>
-        <v>-7218.4823137806961</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5388.7597078094259</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -22215,8 +22224,8 @@
         <v>1.1413863420215113</v>
       </c>
       <c r="G71" s="36">
-        <f t="shared" si="15"/>
-        <v>0.26920063910615344</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0.26880570588851932</v>
       </c>
       <c r="H71" s="36">
         <f t="shared" si="15"/>
@@ -22248,8 +22257,8 @@
         <v>1.1672110074795921</v>
       </c>
       <c r="G72" s="36">
-        <f t="shared" si="16"/>
-        <v>0.32566796063208486</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0.32454425532237124</v>
       </c>
       <c r="H72" s="36">
         <f t="shared" si="16"/>
@@ -22281,8 +22290,8 @@
         <v>1.1926044869069727</v>
       </c>
       <c r="G73" s="36">
-        <f t="shared" si="17"/>
-        <v>0.85830309708751806</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>0.85342184767652451</v>
       </c>
       <c r="H73" s="36">
         <f t="shared" si="17"/>
@@ -22314,8 +22323,8 @@
         <v>1.0103891595975998</v>
       </c>
       <c r="G74" s="36">
-        <f t="shared" si="18"/>
-        <v>0.96183148861424117</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0.95457513666381955</v>
       </c>
       <c r="H74" s="36">
         <f t="shared" si="18"/>
@@ -22347,8 +22356,8 @@
         <v>1.055828795324903</v>
       </c>
       <c r="G75" s="36">
-        <f t="shared" si="19"/>
-        <v>0.87463186625357825</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>0.86683887598877618</v>
       </c>
       <c r="H75" s="36">
         <f t="shared" si="19"/>
@@ -22380,8 +22389,8 @@
         <v>0.99292935193747589</v>
       </c>
       <c r="G76" s="36">
-        <f t="shared" si="20"/>
-        <v>1.1111894847135471</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>1.1001276152174579</v>
       </c>
       <c r="H76" s="36">
         <f t="shared" si="20"/>
@@ -22413,12 +22422,12 @@
         <v>0.96902333734305779</v>
       </c>
       <c r="G77" s="36">
-        <f t="shared" si="21"/>
-        <v>0.93056878512199936</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>0.92852723696677919</v>
       </c>
       <c r="H77" s="36">
-        <f t="shared" si="21"/>
-        <v>1.0130961109478716</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>1.0475240901675604</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -22446,12 +22455,12 @@
         <v>1.0690702530333984</v>
       </c>
       <c r="G78" s="36">
-        <f t="shared" si="22"/>
-        <v>1.1285249444308805</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.1308207895250526</v>
       </c>
       <c r="H78" s="36">
-        <f t="shared" si="22"/>
-        <v>1.0448753310740393</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.0816396077265436</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -22479,12 +22488,12 @@
         <v>0.957352589343893</v>
       </c>
       <c r="G79" s="36">
-        <f t="shared" si="23"/>
-        <v>0.94305395018002758</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>0.94828432243580973</v>
       </c>
       <c r="H79" s="36">
-        <f t="shared" si="23"/>
-        <v>0.92445287198557324</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>0.94868518477555086</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -22512,12 +22521,12 @@
         <v>0.99835552550587259</v>
       </c>
       <c r="G80" s="40">
-        <f t="shared" si="24"/>
-        <v>0.98896132322121155</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>0.99035844294502051</v>
       </c>
       <c r="H80" s="40">
-        <f t="shared" si="24"/>
-        <v>0.98569419102908395</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>1.0106796087624843</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -22598,7 +22607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1824B350-CB5E-114A-9EED-30186EA1CE83}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -23539,8 +23548,8 @@
         <v>260.39925585488572</v>
       </c>
       <c r="G32" s="35">
-        <f>'LRcomb1 Comparison'!G17/'LRcomb1 Comparison'!$C4</f>
-        <v>259.30053048931387</v>
+        <f ca="1">'LRcomb1 Comparison'!G17/'LRcomb1 Comparison'!$C4</f>
+        <v>259.30003297698079</v>
       </c>
       <c r="H32" s="35">
         <f>'LRcomb1 Comparison'!H17/'LRcomb1 Comparison'!$C4</f>
@@ -23572,8 +23581,8 @@
         <v>260.68285466772306</v>
       </c>
       <c r="G33" s="35">
-        <f>'LRcomb1 Comparison'!G18/'LRcomb1 Comparison'!$C5</f>
-        <v>257.85710590747641</v>
+        <f ca="1">'LRcomb1 Comparison'!G18/'LRcomb1 Comparison'!$C5</f>
+        <v>257.85333270906705</v>
       </c>
       <c r="H33" s="35">
         <f>'LRcomb1 Comparison'!H18/'LRcomb1 Comparison'!$C5</f>
@@ -23605,8 +23614,8 @@
         <v>260.82447101764876</v>
       </c>
       <c r="G34" s="35">
-        <f>'LRcomb1 Comparison'!G19/'LRcomb1 Comparison'!$C6</f>
-        <v>259.35880978311775</v>
+        <f ca="1">'LRcomb1 Comparison'!G19/'LRcomb1 Comparison'!$C6</f>
+        <v>259.33740916004029</v>
       </c>
       <c r="H34" s="35">
         <f>'LRcomb1 Comparison'!H19/'LRcomb1 Comparison'!$C6</f>
@@ -23638,8 +23647,8 @@
         <v>274.43171348866406</v>
       </c>
       <c r="G35" s="35">
-        <f>'LRcomb1 Comparison'!G20/'LRcomb1 Comparison'!$C7</f>
-        <v>273.91725752465999</v>
+        <f ca="1">'LRcomb1 Comparison'!G20/'LRcomb1 Comparison'!$C7</f>
+        <v>273.84037835269379</v>
       </c>
       <c r="H35" s="35">
         <f>'LRcomb1 Comparison'!H20/'LRcomb1 Comparison'!$C7</f>
@@ -23671,8 +23680,8 @@
         <v>281.84093199541616</v>
       </c>
       <c r="G36" s="35">
-        <f>'LRcomb1 Comparison'!G21/'LRcomb1 Comparison'!$C8</f>
-        <v>277.90019864143051</v>
+        <f ca="1">'LRcomb1 Comparison'!G21/'LRcomb1 Comparison'!$C8</f>
+        <v>277.73071399938277</v>
       </c>
       <c r="H36" s="35">
         <f>'LRcomb1 Comparison'!H21/'LRcomb1 Comparison'!$C8</f>
@@ -23704,8 +23713,8 @@
         <v>286.0405426550584</v>
       </c>
       <c r="G37" s="35">
-        <f>'LRcomb1 Comparison'!G22/'LRcomb1 Comparison'!$C9</f>
-        <v>289.96624658468141</v>
+        <f ca="1">'LRcomb1 Comparison'!G22/'LRcomb1 Comparison'!$C9</f>
+        <v>289.59904232462873</v>
       </c>
       <c r="H37" s="35">
         <f>'LRcomb1 Comparison'!H22/'LRcomb1 Comparison'!$C9</f>
@@ -23721,27 +23730,27 @@
         <v>293.4946466809422</v>
       </c>
       <c r="C38" s="35">
-        <f>'LRcomb1 Comparison'!C23/'LRcomb1 Comparison'!$C10</f>
-        <v>288.78795365553839</v>
+        <f ca="1">'LRcomb1 Comparison'!C23/'LRcomb1 Comparison'!$C10</f>
+        <v>286.3041990262895</v>
       </c>
       <c r="D38" s="35">
-        <f>'LRcomb1 Comparison'!D23/'LRcomb1 Comparison'!$C10</f>
-        <v>290.15661480168768</v>
+        <f ca="1">'LRcomb1 Comparison'!D23/'LRcomb1 Comparison'!$C10</f>
+        <v>287.66108884190163</v>
       </c>
       <c r="E38" s="35">
-        <f>'LRcomb1 Comparison'!E23/'LRcomb1 Comparison'!$C10</f>
-        <v>296.61236263945301</v>
+        <f ca="1">'LRcomb1 Comparison'!E23/'LRcomb1 Comparison'!$C10</f>
+        <v>294.0613132640454</v>
       </c>
       <c r="F38" s="35">
-        <f>'LRcomb1 Comparison'!F23/'LRcomb1 Comparison'!$C10</f>
-        <v>295.67629942749994</v>
+        <f ca="1">'LRcomb1 Comparison'!F23/'LRcomb1 Comparison'!$C10</f>
+        <v>293.13330077341408</v>
       </c>
       <c r="G38" s="35">
-        <f>'LRcomb1 Comparison'!G23/'LRcomb1 Comparison'!$C10</f>
-        <v>292.77906411236978</v>
+        <f ca="1">'LRcomb1 Comparison'!G23/'LRcomb1 Comparison'!$C10</f>
+        <v>290.10849244484353</v>
       </c>
       <c r="H38" s="35">
-        <f>'LRcomb1 Comparison'!H23/'LRcomb1 Comparison'!$C10</f>
+        <f ca="1">'LRcomb1 Comparison'!H23/'LRcomb1 Comparison'!$C10</f>
         <v>298.99682167385384</v>
       </c>
     </row>
@@ -23754,27 +23763,27 @@
         <v>307.50098039215686</v>
       </c>
       <c r="C39" s="35">
-        <f>'LRcomb1 Comparison'!C24/'LRcomb1 Comparison'!$C11</f>
-        <v>312.13713808120252</v>
+        <f ca="1">'LRcomb1 Comparison'!C24/'LRcomb1 Comparison'!$C11</f>
+        <v>307.76327061271337</v>
       </c>
       <c r="D39" s="35">
-        <f>'LRcomb1 Comparison'!D24/'LRcomb1 Comparison'!$C11</f>
-        <v>314.92489154911544</v>
+        <f ca="1">'LRcomb1 Comparison'!D24/'LRcomb1 Comparison'!$C11</f>
+        <v>310.51196027592039</v>
       </c>
       <c r="E39" s="35">
-        <f>'LRcomb1 Comparison'!E24/'LRcomb1 Comparison'!$C11</f>
-        <v>308.14134542208723</v>
+        <f ca="1">'LRcomb1 Comparison'!E24/'LRcomb1 Comparison'!$C11</f>
+        <v>303.82346958480855</v>
       </c>
       <c r="F39" s="35">
-        <f>'LRcomb1 Comparison'!F24/'LRcomb1 Comparison'!$C11</f>
-        <v>306.60763507042168</v>
+        <f ca="1">'LRcomb1 Comparison'!F24/'LRcomb1 Comparison'!$C11</f>
+        <v>302.31125057459144</v>
       </c>
       <c r="G39" s="35">
-        <f>'LRcomb1 Comparison'!G24/'LRcomb1 Comparison'!$C11</f>
-        <v>313.58913692801667</v>
+        <f ca="1">'LRcomb1 Comparison'!G24/'LRcomb1 Comparison'!$C11</f>
+        <v>309.46073638066764</v>
       </c>
       <c r="H39" s="35">
-        <f>'LRcomb1 Comparison'!H24/'LRcomb1 Comparison'!$C11</f>
+        <f ca="1">'LRcomb1 Comparison'!H24/'LRcomb1 Comparison'!$C11</f>
         <v>303.7665322300362</v>
       </c>
     </row>
@@ -23787,28 +23796,28 @@
         <v>322.2055785123967</v>
       </c>
       <c r="C40" s="35">
-        <f>'LRcomb1 Comparison'!C25/'LRcomb1 Comparison'!$C12</f>
-        <v>339.30488663384858</v>
+        <f ca="1">'LRcomb1 Comparison'!C25/'LRcomb1 Comparison'!$C12</f>
+        <v>332.87192428285647</v>
       </c>
       <c r="D40" s="35">
-        <f>'LRcomb1 Comparison'!D25/'LRcomb1 Comparison'!$C12</f>
-        <v>344.58893685489346</v>
+        <f ca="1">'LRcomb1 Comparison'!D25/'LRcomb1 Comparison'!$C12</f>
+        <v>338.05579293425177</v>
       </c>
       <c r="E40" s="35">
-        <f>'LRcomb1 Comparison'!E25/'LRcomb1 Comparison'!$C12</f>
-        <v>333.03311714346279</v>
+        <f ca="1">'LRcomb1 Comparison'!E25/'LRcomb1 Comparison'!$C12</f>
+        <v>326.7190627675547</v>
       </c>
       <c r="F40" s="35">
-        <f>'LRcomb1 Comparison'!F25/'LRcomb1 Comparison'!$C12</f>
-        <v>331.64721805583542</v>
+        <f ca="1">'LRcomb1 Comparison'!F25/'LRcomb1 Comparison'!$C12</f>
+        <v>325.35943927159781</v>
       </c>
       <c r="G40" s="35">
-        <f>'LRcomb1 Comparison'!G25/'LRcomb1 Comparison'!$C12</f>
-        <v>327.96201061310114</v>
+        <f ca="1">'LRcomb1 Comparison'!G25/'LRcomb1 Comparison'!$C12</f>
+        <v>323.06657377193375</v>
       </c>
       <c r="H40" s="35">
-        <f>'LRcomb1 Comparison'!H25/'LRcomb1 Comparison'!$C12</f>
-        <v>323.16792979047881</v>
+        <f ca="1">'LRcomb1 Comparison'!H25/'LRcomb1 Comparison'!$C12</f>
+        <v>323.16792979047887</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -23820,27 +23829,27 @@
         <v>278.93561054516005</v>
       </c>
       <c r="C41" s="39">
-        <f t="shared" ref="C41:H41" si="1">AVERAGE(C31:C40)</f>
-        <v>280.51979391081534</v>
+        <f t="shared" ref="C41:H41" ca="1" si="1">AVERAGE(C31:C40)</f>
+        <v>279.19073546594234</v>
       </c>
       <c r="D41" s="39">
-        <f t="shared" si="1"/>
-        <v>281.55561944953018</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>280.21145933416796</v>
       </c>
       <c r="E41" s="39">
-        <f t="shared" si="1"/>
-        <v>281.21974606508627</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>279.90144810622684</v>
       </c>
       <c r="F41" s="39">
-        <f t="shared" si="1"/>
-        <v>280.78977112239784</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>279.47705492898251</v>
       </c>
       <c r="G41" s="39">
-        <f t="shared" si="1"/>
-        <v>280.23771495749929</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>279.00435011110642</v>
       </c>
       <c r="H41" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>280.11243996630344</v>
       </c>
     </row>
@@ -23940,8 +23949,8 @@
         <v>0.94225102396785587</v>
       </c>
       <c r="G46" s="35">
-        <f t="shared" si="3"/>
-        <v>-0.15647434160399598</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.15697185393707969</v>
       </c>
       <c r="H46" s="35">
         <f t="shared" si="3"/>
@@ -23973,8 +23982,8 @@
         <v>2.7204181194996977</v>
       </c>
       <c r="G47" s="35">
-        <f t="shared" si="3"/>
-        <v>-0.10533064074695631</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.10910383915631883</v>
       </c>
       <c r="H47" s="35">
         <f t="shared" si="3"/>
@@ -24006,8 +24015,8 @@
         <v>1.945764818187854</v>
       </c>
       <c r="G48" s="35">
-        <f t="shared" si="3"/>
-        <v>0.48010358365684169</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45870296057938731</v>
       </c>
       <c r="H48" s="35">
         <f t="shared" si="3"/>
@@ -24039,8 +24048,8 @@
         <v>0.39685293089513607</v>
       </c>
       <c r="G49" s="35">
-        <f t="shared" si="3"/>
-        <v>-0.11760303310893505</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.1944822050751327</v>
       </c>
       <c r="H49" s="35">
         <f t="shared" si="3"/>
@@ -24072,8 +24081,8 @@
         <v>5.3333705587431837</v>
       </c>
       <c r="G50" s="35">
-        <f t="shared" si="3"/>
-        <v>1.3926372047575342</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2231525627097994</v>
       </c>
       <c r="H50" s="35">
         <f t="shared" si="3"/>
@@ -24105,8 +24114,8 @@
         <v>-3.5269986471767538</v>
       </c>
       <c r="G51" s="35">
-        <f t="shared" si="3"/>
-        <v>0.39870528244625802</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1501022393570111E-2</v>
       </c>
       <c r="H51" s="35">
         <f t="shared" si="3"/>
@@ -24122,27 +24131,27 @@
         <v>0</v>
       </c>
       <c r="C52" s="35">
-        <f t="shared" si="3"/>
-        <v>-4.7066930254038084</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.1904476546527007</v>
       </c>
       <c r="D52" s="35">
-        <f t="shared" si="3"/>
-        <v>-3.3380318792545154</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.8335578390405658</v>
       </c>
       <c r="E52" s="35">
-        <f t="shared" si="3"/>
-        <v>3.1177159585108143</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.56666658310319917</v>
       </c>
       <c r="F52" s="35">
-        <f t="shared" si="3"/>
-        <v>2.1816527465577451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.36134590752811846</v>
       </c>
       <c r="G52" s="35">
-        <f t="shared" si="3"/>
-        <v>-0.71558256857241531</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.3861542360986618</v>
       </c>
       <c r="H52" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5.5021749929116481</v>
       </c>
     </row>
@@ -24155,27 +24164,27 @@
         <v>0</v>
       </c>
       <c r="C53" s="35">
-        <f t="shared" si="3"/>
-        <v>4.6361576890456604</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2622902205565083</v>
       </c>
       <c r="D53" s="35">
-        <f t="shared" si="3"/>
-        <v>7.4239111569585816</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0109798837635253</v>
       </c>
       <c r="E53" s="35">
-        <f t="shared" si="3"/>
-        <v>0.64036502993036493</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.6775108073483125</v>
       </c>
       <c r="F53" s="35">
-        <f t="shared" si="3"/>
-        <v>-0.89334532173518255</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-5.1897298175654214</v>
       </c>
       <c r="G53" s="35">
-        <f t="shared" si="3"/>
-        <v>6.0881565358598095</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9597559885107785</v>
       </c>
       <c r="H53" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-3.7344481621206569</v>
       </c>
     </row>
@@ -24188,28 +24197,28 @@
         <v>0</v>
       </c>
       <c r="C54" s="35">
-        <f t="shared" si="3"/>
-        <v>17.099308121451884</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.66634577045977</v>
       </c>
       <c r="D54" s="35">
-        <f t="shared" si="3"/>
-        <v>22.383358342496763</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>15.850214421855071</v>
       </c>
       <c r="E54" s="35">
-        <f t="shared" si="3"/>
-        <v>10.827538631066091</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.513484255158005</v>
       </c>
       <c r="F54" s="35">
-        <f t="shared" si="3"/>
-        <v>9.4416395434387255</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.153860759201109</v>
       </c>
       <c r="G54" s="35">
-        <f t="shared" si="3"/>
-        <v>5.7564321007044441</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8609952595370487</v>
       </c>
       <c r="H54" s="35">
-        <f t="shared" si="3"/>
-        <v>0.96235127808211018</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96235127808216703</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -24221,27 +24230,27 @@
         <v>0</v>
       </c>
       <c r="C55" s="39">
-        <f t="shared" si="3"/>
-        <v>1.5841833656552922</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25512492078229343</v>
       </c>
       <c r="D55" s="39">
-        <f t="shared" si="3"/>
-        <v>2.6200089043701382</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2758487890079095</v>
       </c>
       <c r="E55" s="39">
-        <f t="shared" si="3"/>
-        <v>2.2841355199262239</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.96583756106679175</v>
       </c>
       <c r="F55" s="39">
-        <f t="shared" si="3"/>
-        <v>1.854160577237792</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.54144438382246562</v>
       </c>
       <c r="G55" s="39">
-        <f t="shared" si="3"/>
-        <v>1.3021044123392471</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.8739565946373204E-2</v>
       </c>
       <c r="H55" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.1768294211433954</v>
       </c>
     </row>
@@ -24320,8 +24329,8 @@
         <v>1.0036316268453878</v>
       </c>
       <c r="G60" s="36">
-        <f t="shared" si="4"/>
-        <v>0.99939691610289738</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.99939499858930625</v>
       </c>
       <c r="H60" s="36">
         <f t="shared" si="4"/>
@@ -24353,8 +24362,8 @@
         <v>1.0105457916892917</v>
       </c>
       <c r="G61" s="36">
-        <f t="shared" si="5"/>
-        <v>0.99959168225360107</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99957705532396024</v>
       </c>
       <c r="H61" s="36">
         <f t="shared" si="5"/>
@@ -24386,8 +24395,8 @@
         <v>1.0075161253961487</v>
       </c>
       <c r="G62" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0018545503054506</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0017718837030418</v>
       </c>
       <c r="H62" s="36">
         <f t="shared" si="5"/>
@@ -24419,8 +24428,8 @@
         <v>1.0014481841109097</v>
       </c>
       <c r="G63" s="36">
-        <f t="shared" si="5"/>
-        <v>0.99957084645044958</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99929030122416074</v>
       </c>
       <c r="H63" s="36">
         <f t="shared" si="5"/>
@@ -24452,8 +24461,8 @@
         <v>1.0192883353027749</v>
       </c>
       <c r="G64" s="36">
-        <f t="shared" si="5"/>
-        <v>1.005036524851334</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0044235772662222</v>
       </c>
       <c r="H64" s="36">
         <f t="shared" si="5"/>
@@ -24485,8 +24494,8 @@
         <v>0.98781977209422289</v>
       </c>
       <c r="G65" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0013768990842455</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0001087864415048</v>
       </c>
       <c r="H65" s="36">
         <f t="shared" si="5"/>
@@ -24502,27 +24511,27 @@
         <v>1</v>
       </c>
       <c r="C66" s="36">
-        <f t="shared" si="5"/>
-        <v>0.9839632747014958</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97550058327820399</v>
       </c>
       <c r="D66" s="36">
-        <f t="shared" si="5"/>
-        <v>0.98862660046101869</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.98012380155818579</v>
       </c>
       <c r="E66" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0106227353506045</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0019307561126294</v>
       </c>
       <c r="F66" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0074333647009563</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99876881601891387</v>
       </c>
       <c r="G66" s="36">
-        <f t="shared" si="5"/>
-        <v>0.99756185478452586</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.98846263714043225</v>
       </c>
       <c r="H66" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.0187471051180468</v>
       </c>
     </row>
@@ -24535,27 +24544,27 @@
         <v>1</v>
       </c>
       <c r="C67" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0150768875049867</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0008529736075054</v>
       </c>
       <c r="D67" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0241427235369813</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0097917732812547</v>
       </c>
       <c r="E67" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0020824812627058</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.98804065339024816</v>
       </c>
       <c r="F67" s="36">
-        <f t="shared" si="5"/>
-        <v>0.99709482122432291</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.98312288367033185</v>
       </c>
       <c r="G67" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0197988199195189</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0063731698871707</v>
       </c>
       <c r="H67" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.98785549185125165</v>
       </c>
     </row>
@@ -24568,28 +24577,28 @@
         <v>1</v>
       </c>
       <c r="C68" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0530695595042094</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0331041623168216</v>
       </c>
       <c r="D68" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0694691831402776</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0491928615731438</v>
       </c>
       <c r="E68" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0336044418630372</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0140080884880904</v>
       </c>
       <c r="F68" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0293031535550383</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0097883493320081</v>
       </c>
       <c r="G68" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0178657120937555</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0026721922801964</v>
       </c>
       <c r="H68" s="36">
-        <f t="shared" si="5"/>
-        <v>1.0029867616896182</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0029867616896184</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -24601,27 +24610,27 @@
         <v>1</v>
       </c>
       <c r="C69" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0056793873057626</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0009146373253801</v>
       </c>
       <c r="D69" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0093928806696626</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0045739903431992</v>
       </c>
       <c r="E69" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0081887555176696</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0034625824905581</v>
       </c>
       <c r="F69" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0066472709368803</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.001941108855783</v>
       </c>
       <c r="G69" s="40">
-        <f t="shared" si="5"/>
-        <v>1.0046681182434698</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0002464352465146</v>
       </c>
       <c r="H69" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.0042190002877129</v>
       </c>
     </row>
@@ -24775,8 +24784,8 @@
         <v>1483.8022446279647</v>
       </c>
       <c r="G5" s="35">
-        <f>'LRamounts4 - separation method'!N72</f>
-        <v>349.96083083799948</v>
+        <f ca="1">'LRamounts4 - separation method'!N72</f>
+        <v>349.44741765507513</v>
       </c>
       <c r="H5" s="35">
         <f>'LRamounts5 PPCI'!F53</f>
@@ -24808,8 +24817,8 @@
         <v>3828.4521045330621</v>
       </c>
       <c r="G6" s="35">
-        <f>'LRamounts4 - separation method'!N73</f>
-        <v>1068.1909108732384</v>
+        <f ca="1">'LRamounts4 - separation method'!N73</f>
+        <v>1064.5051574573777</v>
       </c>
       <c r="H6" s="35">
         <f>'LRamounts5 PPCI'!F54</f>
@@ -24841,8 +24850,8 @@
         <v>5794.8652018809807</v>
       </c>
       <c r="G7" s="35">
-        <f>'LRamounts4 - separation method'!N74</f>
-        <v>4170.4947487482505</v>
+        <f ca="1">'LRamounts4 - separation method'!N74</f>
+        <v>4146.7767578602325</v>
       </c>
       <c r="H7" s="35">
         <f>'LRamounts5 PPCI'!F55</f>
@@ -24874,8 +24883,8 @@
         <v>10736.395209884096</v>
       </c>
       <c r="G8" s="35">
-        <f>'LRamounts4 - separation method'!N75</f>
-        <v>10220.421398014927</v>
+        <f ca="1">'LRamounts4 - separation method'!N75</f>
+        <v>10143.315402189746</v>
       </c>
       <c r="H8" s="35">
         <f>'LRamounts5 PPCI'!F56</f>
@@ -24907,8 +24916,8 @@
         <v>23937.750447606202</v>
       </c>
       <c r="G9" s="35">
-        <f>'LRamounts4 - separation method'!N76</f>
-        <v>19829.653671701126</v>
+        <f ca="1">'LRamounts4 - separation method'!N76</f>
+        <v>19652.970996417534</v>
       </c>
       <c r="H9" s="35">
         <f>'LRamounts5 PPCI'!F57</f>
@@ -24940,8 +24949,8 @@
         <v>34306.702038791729</v>
       </c>
       <c r="G10" s="35">
-        <f>'LRamounts4 - separation method'!N77</f>
-        <v>38392.707886337761</v>
+        <f ca="1">'LRamounts4 - separation method'!N77</f>
+        <v>38010.50923337839</v>
       </c>
       <c r="H10" s="35">
         <f>'LRamounts5 PPCI'!F58</f>
@@ -24973,12 +24982,12 @@
         <v>67156.224347885931</v>
       </c>
       <c r="G11" s="35">
-        <f>'LRamounts4 - separation method'!N78</f>
-        <v>64491.208515309925</v>
+        <f ca="1">'LRamounts4 - separation method'!N78</f>
+        <v>64349.723103508695</v>
       </c>
       <c r="H11" s="35">
-        <f>'LRamounts5 PPCI'!F59</f>
-        <v>70210.599777020339</v>
+        <f ca="1">'LRamounts5 PPCI'!F59</f>
+        <v>72596.56202088244</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -25006,12 +25015,12 @@
         <v>131909.37131103192</v>
       </c>
       <c r="G12" s="35">
-        <f>'LRamounts4 - separation method'!N79</f>
-        <v>139245.30731849305</v>
+        <f ca="1">'LRamounts4 - separation method'!N79</f>
+        <v>139528.58475712765</v>
       </c>
       <c r="H12" s="35">
-        <f>'LRamounts5 PPCI'!F60</f>
-        <v>128924.0324752325</v>
+        <f ca="1">'LRamounts5 PPCI'!F60</f>
+        <v>133460.26627855503</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -25039,12 +25048,12 @@
         <v>224600.66157561337</v>
       </c>
       <c r="G13" s="35">
-        <f>'LRamounts4 - separation method'!N80</f>
-        <v>221246.11503593554</v>
+        <f ca="1">'LRamounts4 - separation method'!N80</f>
+        <v>222473.19174937558</v>
       </c>
       <c r="H13" s="35">
-        <f>'LRamounts5 PPCI'!F61</f>
-        <v>216882.19048504741</v>
+        <f ca="1">'LRamounts5 PPCI'!F61</f>
+        <v>222567.23645945289</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -25072,12 +25081,12 @@
         <v>503754.22448185523</v>
       </c>
       <c r="G14" s="39">
-        <f t="shared" si="0"/>
-        <v>499014.06031625182</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>499719.02457497024</v>
       </c>
       <c r="H14" s="39">
-        <f t="shared" si="0"/>
-        <v>497365.5176862193</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>509972.75970780943</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -25176,8 +25185,8 @@
         <v>-84.197755372035317</v>
       </c>
       <c r="G19" s="35">
-        <f t="shared" si="2"/>
-        <v>-1218.0391691620005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-1218.5525823449248</v>
       </c>
       <c r="H19" s="35">
         <f t="shared" si="2"/>
@@ -25209,8 +25218,8 @@
         <v>-546.54789546693792</v>
       </c>
       <c r="G20" s="35">
-        <f t="shared" si="2"/>
-        <v>-3306.8090891267616</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3310.4948425426223</v>
       </c>
       <c r="H20" s="35">
         <f t="shared" si="2"/>
@@ -25242,8 +25251,8 @@
         <v>-2748.1347981190193</v>
       </c>
       <c r="G21" s="35">
-        <f t="shared" si="2"/>
-        <v>-4372.5052512517495</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-4396.2232421397675</v>
       </c>
       <c r="H21" s="35">
         <f t="shared" si="2"/>
@@ -25275,8 +25284,8 @@
         <v>-6369.6047901159036</v>
       </c>
       <c r="G22" s="35">
-        <f t="shared" si="2"/>
-        <v>-6885.578601985073</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-6962.6845978102538</v>
       </c>
       <c r="H22" s="35">
         <f t="shared" si="2"/>
@@ -25308,8 +25317,8 @@
         <v>-14907.249552393798</v>
       </c>
       <c r="G23" s="35">
-        <f t="shared" si="2"/>
-        <v>-19015.346328298874</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-19192.029003582466</v>
       </c>
       <c r="H23" s="35">
         <f t="shared" si="2"/>
@@ -25341,8 +25350,8 @@
         <v>-27911.297961208271</v>
       </c>
       <c r="G24" s="35">
-        <f t="shared" si="2"/>
-        <v>-23825.292113662239</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-24207.49076662161</v>
       </c>
       <c r="H24" s="35">
         <f t="shared" si="2"/>
@@ -25374,12 +25383,12 @@
         <v>-36619.775652114069</v>
       </c>
       <c r="G25" s="35">
-        <f t="shared" si="2"/>
-        <v>-39284.791484690075</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-39426.276896491305</v>
       </c>
       <c r="H25" s="35">
-        <f t="shared" si="2"/>
-        <v>-33565.400222979661</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-31179.43797911756</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -25407,12 +25416,12 @@
         <v>-15394.628688968078</v>
       </c>
       <c r="G26" s="35">
-        <f t="shared" si="2"/>
-        <v>-8058.6926815069455</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-7775.4152428723464</v>
       </c>
       <c r="H26" s="35">
-        <f t="shared" si="2"/>
-        <v>-18379.967524767504</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-13843.733721444965</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -25440,12 +25449,12 @@
         <v>154269.66157561337</v>
       </c>
       <c r="G27" s="35">
-        <f t="shared" si="2"/>
-        <v>150915.11503593554</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>152142.19174937558</v>
       </c>
       <c r="H27" s="35">
-        <f t="shared" si="2"/>
-        <v>146551.19048504741</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>152236.23645945289</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -25473,12 +25482,12 @@
         <v>49688.224481855228</v>
       </c>
       <c r="G28" s="39">
-        <f t="shared" si="2"/>
-        <v>44948.060316251824</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45653.024574970244</v>
       </c>
       <c r="H28" s="39">
-        <f t="shared" si="2"/>
-        <v>43299.517686219304</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>55906.759707809426</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -25556,8 +25565,8 @@
         <v>0.94630245193109996</v>
       </c>
       <c r="G33" s="36">
-        <f t="shared" si="3"/>
-        <v>0.22318930538137721</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2228618735045122</v>
       </c>
       <c r="H33" s="36">
         <f t="shared" si="3"/>
@@ -25589,8 +25598,8 @@
         <v>0.87507476675041418</v>
       </c>
       <c r="G34" s="36">
-        <f t="shared" si="4"/>
-        <v>0.24415792248531162</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.24331546456168632</v>
       </c>
       <c r="H34" s="36">
         <f t="shared" si="4"/>
@@ -25622,8 +25631,8 @@
         <v>0.67831735946166227</v>
       </c>
       <c r="G35" s="36">
-        <f t="shared" si="4"/>
-        <v>0.48817684054175942</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.485400533519868</v>
       </c>
       <c r="H35" s="36">
         <f t="shared" si="4"/>
@@ -25655,8 +25664,8 @@
         <v>0.6276391447377585</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="4"/>
-        <v>0.59747582123318876</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.59296828026363535</v>
       </c>
       <c r="H36" s="36">
         <f t="shared" si="4"/>
@@ -25688,8 +25697,8 @@
         <v>0.61623762254102721</v>
       </c>
       <c r="G37" s="36">
-        <f t="shared" si="4"/>
-        <v>0.51048149495948325</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.50593309296994549</v>
       </c>
       <c r="H37" s="36">
         <f t="shared" si="4"/>
@@ -25721,8 +25730,8 @@
         <v>0.55139512743565733</v>
       </c>
       <c r="G38" s="36">
-        <f t="shared" si="4"/>
-        <v>0.6170675348988679</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.61092463970841859</v>
       </c>
       <c r="H38" s="36">
         <f t="shared" si="4"/>
@@ -25754,12 +25763,12 @@
         <v>0.64712673785736519</v>
       </c>
       <c r="G39" s="36">
-        <f t="shared" si="4"/>
-        <v>0.62144627385243145</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.62008290070448557</v>
       </c>
       <c r="H39" s="36">
-        <f t="shared" si="4"/>
-        <v>0.6765591252025549</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.69955058993295594</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -25787,12 +25796,12 @@
         <v>0.89549076271541794</v>
       </c>
       <c r="G40" s="36">
-        <f t="shared" si="4"/>
-        <v>0.94529209877866893</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.94721517920170295</v>
       </c>
       <c r="H40" s="36">
-        <f t="shared" si="4"/>
-        <v>0.87522424696703749</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.90601929532500836</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -25820,12 +25829,12 @@
         <v>3.1934802800417081</v>
       </c>
       <c r="G41" s="36">
-        <f t="shared" si="4"/>
-        <v>3.1457837231936918</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1632308903524131</v>
       </c>
       <c r="H41" s="36">
-        <f t="shared" si="4"/>
-        <v>3.0837353440879185</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.164568063292899</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -25853,12 +25862,12 @@
         <v>1.1094295201179019</v>
       </c>
       <c r="G42" s="40">
-        <f t="shared" si="4"/>
-        <v>1.0989901475033406</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1005427065117632</v>
       </c>
       <c r="H42" s="40">
-        <f t="shared" si="4"/>
-        <v>1.0953595241357408</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1.123124743336452</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">

--- a/static/output/Excel/LRamounts-sol-2.xlsx
+++ b/static/output/Excel/LRamounts-sol-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/b_avanzi_unimelb_edu_au/Documents/Documents/Teaching 20 onwards/2024/24 20004 90021/PG tutorials/wk6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EDD25CB4-CF4E-7147-96AA-EC016799BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06003E09-5F2A-4D47-AA38-8A6E5927D13B}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{EDD25CB4-CF4E-7147-96AA-EC016799BC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F854E699-F332-344D-B5FF-2E996D8797D5}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="760" windowWidth="29400" windowHeight="20820" firstSheet="2" activeTab="7" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
+    <workbookView xWindow="-43100" yWindow="-1860" windowWidth="29400" windowHeight="20820" activeTab="8" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="WPI" sheetId="3" r:id="rId1"/>
@@ -143,42 +143,6 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={DC07B1C9-879B-0341-B691-8B9D805BB27A}</author>
-    <author>tc={405F7875-91D5-AB4C-8697-094ACF0ECE1C}</author>
-    <author>tc={C7741484-A9F7-9444-8220-67AED1024989}</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DC07B1C9-879B-0341-B691-8B9D805BB27A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    From rectangle</t>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{405F7875-91D5-AB4C-8697-094ACF0ECE1C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    From rectangle</t>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="2" shapeId="0" xr:uid="{C7741484-A9F7-9444-8220-67AED1024989}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    From rectangle</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -202,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
   <si>
     <t>Cumulative amounts</t>
   </si>
@@ -417,9 +381,6 @@
     <t>if using 3% for projections:</t>
   </si>
   <si>
-    <t>Case Reserves</t>
-  </si>
-  <si>
     <t>Counts rectangle (actual)</t>
   </si>
   <si>
@@ -446,6 +407,21 @@
   <si>
     <t>OFFSET</t>
   </si>
+  <si>
+    <t>Outstanding difference</t>
+  </si>
+  <si>
+    <t>Payments rectangle (actual)</t>
+  </si>
+  <si>
+    <t>Outstanding as per method</t>
+  </si>
+  <si>
+    <t>(from diagonal)</t>
+  </si>
+  <si>
+    <t>Note: the case estimates do not include IBNR claims, whereas outstanding losses do. So it's a question of tracking the ratio for smooth development, rather than looking for a match (especially for immature years). The match is better in mature years for methods using incurred as input (of course).</t>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +440,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,6 +495,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -540,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -577,13 +561,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -650,6 +667,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3415,7 +3440,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>(from diagonal)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6715,15 +6740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>607483</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7089,20 +7114,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2023-08-17T22:03:39.57" personId="{CA2F858E-BD0F-C842-A552-2AC0EF8CC078}" id="{DC07B1C9-879B-0341-B691-8B9D805BB27A}">
-    <text>From rectangle</text>
-  </threadedComment>
-  <threadedComment ref="B17" dT="2023-08-17T22:03:39.57" personId="{CA2F858E-BD0F-C842-A552-2AC0EF8CC078}" id="{405F7875-91D5-AB4C-8697-094ACF0ECE1C}">
-    <text>From rectangle</text>
-  </threadedComment>
-  <threadedComment ref="B31" dT="2023-08-17T22:03:39.57" personId="{CA2F858E-BD0F-C842-A552-2AC0EF8CC078}" id="{C7741484-A9F7-9444-8220-67AED1024989}">
-    <text>From rectangle</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E08B26-E0FB-E246-AE7E-CC2FCFCFAD7C}">
   <dimension ref="A1:B56"/>
@@ -7541,22 +7552,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7826,8 +7837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF0E41B-5E9B-7C42-9B87-62A3DF143077}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9877,7 +9888,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="47">
         <f ca="1">SUM(OFFSET($C$4:$L$12,0,1+C3,9-C3,1))/SUM(OFFSET($C$4:$L$12,0,C3,9-C3,1))</f>
@@ -11189,7 +11200,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="47">
         <f ca="1">SUM(OFFSET($C$55:$L$63,0,1+C54,9-C54,1))/SUM(OFFSET($C$55:$L$63,0,C54,9-C54,1))</f>
@@ -12464,7 +12475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE60E96-7E9F-8147-B8EF-C1FAB6D33EAF}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
@@ -13191,7 +13202,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="47">
         <f ca="1">SUM(OFFSET($C$4:$L$12,0,1+C3,9-C3,1))/SUM(OFFSET($C$4:$L$12,0,C3,9-C3,1))</f>
@@ -14503,7 +14514,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="47">
         <f ca="1">SUM(OFFSET($C$55:$L$63,0,1+C54,9-C54,1))/SUM(OFFSET($C$55:$L$63,0,C54,9-C54,1))</f>
@@ -15851,7 +15862,7 @@
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="O2" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
@@ -18683,7 +18694,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19899,7 +19910,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="47">
         <f ca="1">SUM(OFFSET($B$18:$K$26,0,1+B17,9-B17,1))/SUM(OFFSET($B$18:$K$26,0,B17,9-B17,1))</f>
@@ -20481,8 +20492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FBCDE-374F-8347-AD8D-76FB3C6D7305}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21749,9 +21760,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="37" t="s">
-        <v>48</v>
-      </c>
+      <c r="A54" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="54"/>
       <c r="C54" s="34" t="s">
         <v>63</v>
       </c>
@@ -22607,8 +22619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1824B350-CB5E-114A-9EED-30186EA1CE83}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22619,7 +22631,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23030,7 +23042,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -23454,7 +23466,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>63</v>
@@ -23855,7 +23867,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>63</v>
@@ -24256,7 +24268,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>63</v>
@@ -24675,22 +24687,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C87D49-A275-324D-9A44-485F76168570}">
-  <dimension ref="A2:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C87D49-A275-324D-9A44-485F76168570}">
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C1" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>63</v>
@@ -24707,9 +24724,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="34" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>65</v>
@@ -24726,7 +24743,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -24759,7 +24776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -24792,7 +24809,7 @@
         <v>1486.7456942668068</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -24825,7 +24842,7 @@
         <v>3841.2814322195773</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -24858,7 +24875,7 @@
         <v>5618.1200187292416</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -24891,7 +24908,7 @@
         <v>10880.910263133643</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -24924,7 +24941,7 @@
         <v>24681.110467131075</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -24957,7 +24974,7 @@
         <v>34840.527073438745</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -24990,7 +25007,7 @@
         <v>72596.56202088244</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -25023,7 +25040,7 @@
         <v>133460.26627855503</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -25056,7 +25073,7 @@
         <v>222567.23645945289</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>69</v>
       </c>
@@ -25089,9 +25106,26 @@
         <v>509972.75970780943</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="57"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="37" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>63</v>
@@ -25110,7 +25144,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>65</v>
@@ -25492,7 +25526,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="C30" s="34" t="s">
         <v>63</v>
@@ -25511,7 +25545,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>65</v>
@@ -25880,6 +25914,9 @@
       <c r="H45" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I15:T15"/>
+  </mergeCells>
   <conditionalFormatting sqref="B18:H28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -25906,6 +25943,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>